--- a/excel-files/image/image-url.xlsx
+++ b/excel-files/image/image-url.xlsx
@@ -2,25 +2,41 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\BOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24496ED-1B03-4FA5-A28D-8A21174EB38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7B7060-02B4-4DCA-AB2B-CFE2799528B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{331C9364-9EDB-475D-A954-6AE241421B68}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>SKU</t>
   </si>
@@ -28,75 +44,69 @@
     <t>url</t>
   </si>
   <si>
-    <t>1009847</t>
-  </si>
-  <si>
-    <t>1014242</t>
-  </si>
-  <si>
-    <t>1014162</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1014242_0_222931274065_10.jpeg</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1014162_0_223035261388_95.jpeg</t>
-  </si>
-  <si>
-    <t>1014243</t>
-  </si>
-  <si>
-    <t>1013347</t>
-  </si>
-  <si>
-    <t>1014245</t>
-  </si>
-  <si>
-    <t>1010225</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1014243_0_222932062132_10.jpeg</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1013347_0_222559578215_4.jpeg</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1014245_0_222932141510_11.jpeg</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1010225_0_223012668626_66.jpeg</t>
-  </si>
-  <si>
-    <t>1008118</t>
-  </si>
-  <si>
-    <t>1014141</t>
-  </si>
-  <si>
-    <t>1014139</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1008118_0_222442185568_41.jpeg</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/C7_1014141_0_222825730450_63.jpeg</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/C5_1014139_0_222826208443_63.jpeg</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1009847_0_23013234187_65.jpeg</t>
+    <t>COD454</t>
+  </si>
+  <si>
+    <t>https://importacionessumak.com/cdn/shop/files/Mesadetrabajo46-copia.jpg?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo2_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo3_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo4_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/BiotinGomitas_1.jpg?v=1704921444&amp;width=750</t>
+  </si>
+  <si>
+    <t>COD455</t>
+  </si>
+  <si>
+    <t>https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_mesa-de-trabajo-45_491306.jpg|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo2_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo3_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo4_1.png?v=1704921444&amp;width=750|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_mesa-de-trabajo-6_258897.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_mesa-de-trabajo-5-copia_%2060410.jpg</t>
+  </si>
+  <si>
+    <t>COD456</t>
+  </si>
+  <si>
+    <t>https://importacionessumak.com/cdn/shop/files/Mesadetrabajo44-copia.jpg?v=1704921303&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo9copia2_4.jpg?v=1704921303&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo4_1_457e66e8-7f8b-4b55-9b37-f02aa051bb86.png?v=1704921303&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo1_2_386536ab-ca5f-4934-bdea-09d38fbb0637.png?v=1704921303&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo2_1_8d32437c-e5a3-4324-8c83-4103a74c9537.png?v=1704921303&amp;width=750</t>
+  </si>
+  <si>
+    <t>COD457</t>
+  </si>
+  <si>
+    <t>https://importacionessumak.com/cdn/shop/files/Mesadetrabajo43-copia.jpg?v=1704921389&amp;width=750|https://importacionessumak.com/cdn/shop/products/IMG_2_1_c452844c-96fb-4b70-b88b-e766da123b6f.jpg?v=1704921389&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo4_1_18453745-047e-45c2-8872-a0374212aba0.png?v=1704921389&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo2_1_6700348c-7e24-42ef-b27a-d5b75917ae3d.png?v=1704921389&amp;width=750</t>
+  </si>
+  <si>
+    <t>COD462_1</t>
+  </si>
+  <si>
+    <t>https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2black-hair-shampoo25mlx10-5_%2022775.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2black-hair-shampoo25mlx10-1_612267.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2black-hair-shampoo25mlx10-3_914794.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2black-hair-shampoo25mlx10-4_483591.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2black-hair-shampoo25mlx10-2_844193.jpg</t>
+  </si>
+  <si>
+    <t>COD462_2</t>
+  </si>
+  <si>
+    <t>https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3-black-hair-shampoo-25ml-x-10-4_820981.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3-black-hair-shampoo-25ml-x-10-2_182121.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3-black-hair-shampoo-25ml-x-10-3_393870.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3-black-hair-shampoo-25ml-x-10-1_928882.jpg</t>
+  </si>
+  <si>
+    <t>COD463</t>
+  </si>
+  <si>
+    <t>https://importacionessumak.com/cdn/shop/products/Mesadetrabajo1_26.jpg?v=1689442146&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo2_22.jpg?v=1689442146&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo6_16.jpg?v=1689442146&amp;width=750</t>
+  </si>
+  <si>
+    <t>COD463_1</t>
+  </si>
+  <si>
+    <t>https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2shampoo-selsun-blue-325ml-4_631448.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2shampoo-sen_244302.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2shampoo-selsun-blue-325ml-3_%2098154.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2shampoo-selsun-blue-325ml-1_%2061783.jpg</t>
+  </si>
+  <si>
+    <t>COD463_2</t>
+  </si>
+  <si>
+    <t>https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3shampoo-selsun-blue-325ml-1_725167.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3-shampo-seller_261685.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3shampoo-selsun-blue-325ml-4_653559.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3shampoo-selsun-blue-325ml-2_937824.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -104,14 +114,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,23 +148,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -175,7 +174,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -185,44 +184,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -249,14 +248,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -283,6 +300,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -294,178 +329,174 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F409E752-2F91-4562-AF6B-371FAD3F9738}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A6" sqref="A6:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -479,13 +510,13 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -493,31 +524,31 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -525,40 +556,29 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{893904F9-1219-4131-8B80-08F56DE30F31}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel-files/image/image-url.xlsx
+++ b/excel-files/image/image-url.xlsx
@@ -1,119 +1,448 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\BOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7B7060-02B4-4DCA-AB2B-CFE2799528B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F56244F-A688-44F0-8B1E-9AFDB8719692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{331C9364-9EDB-475D-A954-6AE241421B68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$63</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_dee3e34be48f44dfb61872567367e02a~mv2.jpg/v1/fill/w_640,h_640,al_c,q_85/0a81fd_dee3e34be48f44dfb61872567367e02a~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0101-WT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_7b5c0d223b7a4bd792df458f196ca1aa~mv2.jpg/v1/fill/w_1000,h_1000,al_c,q_85/0a81fd_7b5c0d223b7a4bd792df458f196ca1aa~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0118-WT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_180d215bb3cb45fcaee13a4134a3d8c5~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_180d215bb3cb45fcaee13a4134a3d8c5~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0110-RD</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_613da95e063d45aba7568a53dc7d5d0f~mv2.jpg/v1/fill/w_1000,h_1000,al_c,q_85/0a81fd_613da95e063d45aba7568a53dc7d5d0f~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0117-WT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_8eccbe36678049d895c391f181cf0c2a~mv2.jpg/v1/fill/w_1000,h_1000,al_c,q_85/0a81fd_8eccbe36678049d895c391f181cf0c2a~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJB-111-WT </t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_5204e878d8d348f3b60274b54c4f4dba~mv2.jpg/v1/fill/w_1000,h_1000,al_c,q_85/0a81fd_5204e878d8d348f3b60274b54c4f4dba~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0117-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_98e48f58e52144ca8e9215699ffd1465~mv2.jpg/v1/fill/w_1000,h_1000,al_c,q_85/0a81fd_98e48f58e52144ca8e9215699ffd1465~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0110-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_f62c21eb6e6441e98b7d9b180787e616~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_f62c21eb6e6441e98b7d9b180787e616~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0125-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_813754bb8dd24f84904f81e40e8f00ed~mv2.jpg/v1/fill/w_1000,h_1000,al_c,q_85/0a81fd_813754bb8dd24f84904f81e40e8f00ed~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJB-111-BK </t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_2b16fba9df414e4cbf6bcc20d8f7a176~mv2.jpg/v1/fill/w_756,h_521,al_c,q_85/0a81fd_2b16fba9df414e4cbf6bcc20d8f7a176~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJB-0101-BEI </t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_65dc49efe3a3445eb450b3460c456a5a~mv2.jpg/v1/fill/w_1000,h_1000,al_c,q_85/0a81fd_65dc49efe3a3445eb450b3460c456a5a~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0118-CFWT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_3b9b9956ff6e4c61a55be3420f19d8ad~mv2.jpg/v1/fill/w_1000,h_1000,al_c,q_85/0a81fd_3b9b9956ff6e4c61a55be3420f19d8ad~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0118-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_a34f5e16e34b4e89be3690b5458235ed~mv2.jpg/v1/fill/w_1000,h_1000,al_c,q_85/0a81fd_a34f5e16e34b4e89be3690b5458235ed~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0110-PK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_9fb03df4a8b648619ab2a9b1324fcbf2~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_9fb03df4a8b648619ab2a9b1324fcbf2~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0125-CFWT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_544771e016044ca2a2c839c7a4dd3865~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_544771e016044ca2a2c839c7a4dd3865~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0103-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_846290c95a8a428eb1d80c1ec985931b~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_846290c95a8a428eb1d80c1ec985931b~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0103-WT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_43af837b5a5b464f9ab8a10ed1531e57~mv2.jpg/v1/fill/w_1437,h_912,al_c,q_85/0a81fd_43af837b5a5b464f9ab8a10ed1531e57~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0105-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_debb5b6cb47143cfb20716efb08e2eba~mv2.jpg/v1/fill/w_1384,h_862,al_c,q_85/0a81fd_debb5b6cb47143cfb20716efb08e2eba~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0105-CF</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_d9a52af06f7243a096764dbce02becfb~mv2.png/v1/fill/w_840,h_563,al_c,lg_1/0a81fd_d9a52af06f7243a096764dbce02becfb~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0119-CFWT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_4b5aa98f84a04ee08da3c55c09249558~mv2.png/v1/fill/w_804,h_533,al_c/0a81fd_4b5aa98f84a04ee08da3c55c09249558~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0119-CF</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_2f7c7ea2a29f425093d8b27feb11e3f6~mv2.png/v1/fill/w_884,h_528,al_c/0a81fd_2f7c7ea2a29f425093d8b27feb11e3f6~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0119-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_41acae4e8c674205925c1211c7f2ccb8~mv2.png/v1/fill/w_1053,h_662,al_c/0a81fd_41acae4e8c674205925c1211c7f2ccb8~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0121-YL</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_230a9c5e887b4a77a6896be8220cf6af~mv2.png/v1/fill/w_827,h_593,al_c/0a81fd_230a9c5e887b4a77a6896be8220cf6af~mv2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJB-0121-BLI </t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_e137f327246d4038a1244886138aa776~mv2.png/v1/fill/w_759,h_606,al_c/0a81fd_e137f327246d4038a1244886138aa776~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0121-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_eafc03e28ad847c992c91e553cbb59ab~mv2.png/v1/fill/w_760,h_613,al_c,lg_1/0a81fd_eafc03e28ad847c992c91e553cbb59ab~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0121-CF</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_ea462ca7dd484ff9a077785e60509dd1~mv2.png/v1/fill/w_1140,h_850,al_c/0a81fd_ea462ca7dd484ff9a077785e60509dd1~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0121-WT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_9970ad1bab924487ad89b7f7ac73bd73~mv2.png/v1/fill/w_1068,h_770,al_c/0a81fd_9970ad1bab924487ad89b7f7ac73bd73~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0122-CFWT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_0d0ef359b8db4ca1a5afba1fcae5b83c~mv2.png/v1/fill/w_802,h_590,al_c/0a81fd_0d0ef359b8db4ca1a5afba1fcae5b83c~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0122-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_c307ba7cffe44ba7aff2466a50cd97a8~mv2.png/v1/fill/w_1095,h_780,al_c/0a81fd_c307ba7cffe44ba7aff2466a50cd97a8~mv2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJB-0122-BEI </t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_80f80598f1ed48cc8341dcbc7649a221~mv2.jpg/v1/fill/w_1081,h_1081,al_c,q_85/0a81fd_80f80598f1ed48cc8341dcbc7649a221~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0123-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_d1f6be13200e435aa886f4447c077c40~mv2.jpg/v1/fill/w_948,h_948,al_c,q_85/0a81fd_d1f6be13200e435aa886f4447c077c40~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0123-BR</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_d9e8e2732e4241d1b93d8d3ffd75c137~mv2.png/v1/fill/w_945,h_783,al_c/0a81fd_d9e8e2732e4241d1b93d8d3ffd75c137~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0124-OR</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_f1aeb8c796384e0e982f3b764e04216d~mv2.png/v1/fill/w_936,h_752,al_c/0a81fd_f1aeb8c796384e0e982f3b764e04216d~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0124-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_9c84607eae244d1298d656feb1530b25~mv2.png/v1/fill/w_964,h_777,al_c/0a81fd_9c84607eae244d1298d656feb1530b25~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0124-WT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_acba38bd6a57488784f4d85e81a103f3~mv2.png/v1/fill/w_772,h_532,al_c/0a81fd_acba38bd6a57488784f4d85e81a103f3~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0106-PK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_7f538684ac6d446d8d5c96249a3ee4d3~mv2.png/v1/fill/w_876,h_580,al_c,lg_1/0a81fd_7f538684ac6d446d8d5c96249a3ee4d3~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0106-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_6a9febb231244048b6d37fd2e0b8f414~mv2.png/v1/fill/w_787,h_483,al_c/0a81fd_6a9febb231244048b6d37fd2e0b8f414~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0107-BR</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_fc1f11449cea4dfeb89dd0a7e2a1ff0e~mv2.png/v1/fill/w_819,h_523,al_c/0a81fd_fc1f11449cea4dfeb89dd0a7e2a1ff0e~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0107-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_1b3d117cb9e742528ab8afefd4aac643~mv2.png/v1/fill/w_689,h_605,al_c,lg_1/0a81fd_1b3d117cb9e742528ab8afefd4aac643~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0109-CF</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_c28d87944cd747d8bfca3e2b4d140d97~mv2.png/v1/fill/w_667,h_673,al_c,lg_1/0a81fd_c28d87944cd747d8bfca3e2b4d140d97~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0109-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_962c9ea3ad5e4c9cb37f2c919be960aa~mv2.png/v1/fill/w_659,h_659,al_c,lg_1/0a81fd_962c9ea3ad5e4c9cb37f2c919be960aa~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0109-CFWT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_49754e287715445f811d9a3d5e3d377e~mv2.png/v1/fill/w_682,h_676,al_c/0a81fd_49754e287715445f811d9a3d5e3d377e~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0109-WT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_54b5f8799d514272af9c46c034967407~mv2.png/v1/fill/w_613,h_738,al_c,lg_1/0a81fd_54b5f8799d514272af9c46c034967407~mv2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJB-112-GL </t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_c6cc650c4d35435e93b6bfb4ee59c70d~mv2.png/v1/fill/w_642,h_689,al_c,lg_1/0a81fd_c6cc650c4d35435e93b6bfb4ee59c70d~mv2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJB-112-BEI </t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_229fa4d8a8bd496fbcd866295f8ef83b~mv2.png/v1/fill/w_630,h_688,al_c,lg_1/0a81fd_229fa4d8a8bd496fbcd866295f8ef83b~mv2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJB-112-GRE </t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_7e6b03f977314662b2664bcc22246178~mv2.png/v1/fill/w_836,h_576,al_c,lg_1/0a81fd_7e6b03f977314662b2664bcc22246178~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0113-RD</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_2bcba3138397442894f8e95733a5d675~mv2.png/v1/fill/w_625,h_416,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/0a81fd_2bcba3138397442894f8e95733a5d675~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0113-WT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_4aec07df909e4b0d87b48cc1592164e9~mv2.png/v1/fill/w_763,h_543,al_c,usm_0.66_1.00_0.01/0a81fd_4aec07df909e4b0d87b48cc1592164e9~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0114-BR</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_f34b32f2e16642f2a46dcdfe3146f653~mv2.png/v1/fill/w_814,h_519,al_c/0a81fd_f34b32f2e16642f2a46dcdfe3146f653~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0114-PK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_fbcf0d55d5a2478dbbd700bfb810e667~mv2.png/v1/fill/w_820,h_523,al_c/0a81fd_fbcf0d55d5a2478dbbd700bfb810e667~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0114-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_9e79ea6a47da41d6a7e923e79b0a1d52~mv2.png/v1/fill/w_726,h_539,al_c/0a81fd_9e79ea6a47da41d6a7e923e79b0a1d52~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0115PU-WT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_90a11c14e5ef43b0a6d6bed99a649c39~mv2.png/v1/fill/w_737,h_518,al_c/0a81fd_90a11c14e5ef43b0a6d6bed99a649c39~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0116-WT</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_d3cb34238445419d87984b9870e594f1~mv2.png/v1/fill/w_816,h_521,al_c/0a81fd_d3cb34238445419d87984b9870e594f1~mv2.png</t>
+  </si>
+  <si>
+    <t>DJB-0116-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_aef690efdc3a4d319cb6f370a4fa9394~mv2.webp</t>
+  </si>
+  <si>
+    <t>APJ-888-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_b4a250323b874ac783d048b80b41e291~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_b4a250323b874ac783d048b80b41e291~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-990-BK </t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_10e2ee12452449a3827d579a3235afd9~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_10e2ee12452449a3827d579a3235afd9~mv2.jpg</t>
+  </si>
+  <si>
+    <t>SI-990-CF</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_d1c1316e9fce4edcacb37a995653efbd~mv2.webp</t>
+  </si>
+  <si>
+    <t>APJ-888-WH</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_d6f9e335497c4639874d8ef6d8d38474~mv2.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-361-H-CF </t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_5225ed0f9a9642148ce9b2cc638f1ff1~mv2.webp</t>
+  </si>
+  <si>
+    <t>SI-361-H-BK</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_fefc951623de4a12bd324170bfe81072~mv2.webp</t>
+  </si>
+  <si>
+    <t>SI-21526-OR</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_847dba2c9eb64d9a9e6fd7e1f9c145fe~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_847dba2c9eb64d9a9e6fd7e1f9c145fe~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0106-CF</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_654050a52807424b9c0453c3e05d7fb8~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_654050a52807424b9c0453c3e05d7fb8~mv2.jpg</t>
+  </si>
+  <si>
+    <t>DJB-0123-GR</t>
+  </si>
   <si>
     <t>SKU</t>
   </si>
   <si>
     <t>url</t>
-  </si>
-  <si>
-    <t>COD454</t>
-  </si>
-  <si>
-    <t>https://importacionessumak.com/cdn/shop/files/Mesadetrabajo46-copia.jpg?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo2_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo3_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo4_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/BiotinGomitas_1.jpg?v=1704921444&amp;width=750</t>
-  </si>
-  <si>
-    <t>COD455</t>
-  </si>
-  <si>
-    <t>https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_mesa-de-trabajo-45_491306.jpg|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo2_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo3_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo4_1.png?v=1704921444&amp;width=750|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_mesa-de-trabajo-6_258897.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_mesa-de-trabajo-5-copia_%2060410.jpg</t>
-  </si>
-  <si>
-    <t>COD456</t>
-  </si>
-  <si>
-    <t>https://importacionessumak.com/cdn/shop/files/Mesadetrabajo44-copia.jpg?v=1704921303&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo9copia2_4.jpg?v=1704921303&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo4_1_457e66e8-7f8b-4b55-9b37-f02aa051bb86.png?v=1704921303&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo1_2_386536ab-ca5f-4934-bdea-09d38fbb0637.png?v=1704921303&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo2_1_8d32437c-e5a3-4324-8c83-4103a74c9537.png?v=1704921303&amp;width=750</t>
-  </si>
-  <si>
-    <t>COD457</t>
-  </si>
-  <si>
-    <t>https://importacionessumak.com/cdn/shop/files/Mesadetrabajo43-copia.jpg?v=1704921389&amp;width=750|https://importacionessumak.com/cdn/shop/products/IMG_2_1_c452844c-96fb-4b70-b88b-e766da123b6f.jpg?v=1704921389&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo4_1_18453745-047e-45c2-8872-a0374212aba0.png?v=1704921389&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo2_1_6700348c-7e24-42ef-b27a-d5b75917ae3d.png?v=1704921389&amp;width=750</t>
-  </si>
-  <si>
-    <t>COD462_1</t>
-  </si>
-  <si>
-    <t>https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2black-hair-shampoo25mlx10-5_%2022775.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2black-hair-shampoo25mlx10-1_612267.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2black-hair-shampoo25mlx10-3_914794.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2black-hair-shampoo25mlx10-4_483591.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2black-hair-shampoo25mlx10-2_844193.jpg</t>
-  </si>
-  <si>
-    <t>COD462_2</t>
-  </si>
-  <si>
-    <t>https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3-black-hair-shampoo-25ml-x-10-4_820981.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3-black-hair-shampoo-25ml-x-10-2_182121.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3-black-hair-shampoo-25ml-x-10-3_393870.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3-black-hair-shampoo-25ml-x-10-1_928882.jpg</t>
-  </si>
-  <si>
-    <t>COD463</t>
-  </si>
-  <si>
-    <t>https://importacionessumak.com/cdn/shop/products/Mesadetrabajo1_26.jpg?v=1689442146&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo2_22.jpg?v=1689442146&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo6_16.jpg?v=1689442146&amp;width=750</t>
-  </si>
-  <si>
-    <t>COD463_1</t>
-  </si>
-  <si>
-    <t>https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2shampoo-selsun-blue-325ml-4_631448.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2shampoo-sen_244302.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2shampoo-selsun-blue-325ml-3_%2098154.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_2shampoo-selsun-blue-325ml-1_%2061783.jpg</t>
-  </si>
-  <si>
-    <t>COD463_2</t>
-  </si>
-  <si>
-    <t>https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3shampoo-selsun-blue-325ml-1_725167.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3-shampo-seller_261685.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3shampoo-selsun-blue-325ml-4_653559.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_3shampoo-selsun-blue-325ml-2_937824.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,7 +453,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -132,35 +461,47 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -174,7 +515,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -184,42 +525,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -249,29 +590,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -301,23 +625,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,6 +686,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -387,13 +701,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -458,127 +765,537 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F409E752-2F91-4562-AF6B-371FAD3F9738}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A63">
+    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A63">
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel-files/image/image-url.xlsx
+++ b/excel-files/image/image-url.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\BOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FE1D704-83F6-455B-B7C8-9F18A972B979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B0EBA8-E4A5-4174-A695-95B09F2025E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1EBBF091-B6FE-4CBF-89EF-409F38D4B681}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>M-P6-C33</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/0a81fd_df69e6d68f404ae9850cc29f08d2b4fd~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_df69e6d68f404ae9850cc29f08d2b4fd~mv2.jpg</t>
-  </si>
-  <si>
     <t>M-P6-C32</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>https://static.wixstatic.com/media/0a81fd_57682601b9134aa89c948ef6e5f04d99~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_57682601b9134aa89c948ef6e5f04d99~mv2.jpg</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/0a81fd_df69e6d68f404ae950cc29f08d2b4fd~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_df69e6d68f404ae9850cc2908d2b4fd~mv2.jpg</t>
   </si>
 </sst>
 </file>
@@ -115,11 +115,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +458,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,24 +475,24 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/excel-files/image/image-url.xlsx
+++ b/excel-files/image/image-url.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\BOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B0EBA8-E4A5-4174-A695-95B09F2025E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1FDA98F-1C01-4D1C-966C-FC64D3B7E00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1EBBF091-B6FE-4CBF-89EF-409F38D4B681}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B9850FB-3DED-4EEE-9074-541AEF78CC97}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>SKU</t>
   </si>
@@ -44,22 +44,16 @@
     <t>url</t>
   </si>
   <si>
-    <t>M-P6-C33</t>
-  </si>
-  <si>
-    <t>M-P6-C32</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/0a81fd_4c9cb6bb2bd444409e99f3aa67766f70~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_4c9cb6bb2bd444409e99f3aa67766f70~mv2.jpg</t>
-  </si>
-  <si>
-    <t>M-P6-C31</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/0a81fd_57682601b9134aa89c948ef6e5f04d99~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_57682601b9134aa89c948ef6e5f04d99~mv2.jpg</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/0a81fd_df69e6d68f404ae950cc29f08d2b4fd~mv2.jpg/v1/fill/w_800,h_800,al_c,q_85/0a81fd_df69e6d68f404ae9850cc2908d2b4fd~mv2.jpg</t>
+    <t>COD454</t>
+  </si>
+  <si>
+    <t>https://importacionessumak.com/cdn/shop/files/Mesadetrabajo46-copia.jpg?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo2_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo3_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo4_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/BiotinGomitas_1.jpg?v=1704921444&amp;width=750</t>
+  </si>
+  <si>
+    <t>COD455</t>
+  </si>
+  <si>
+    <t>https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_mesa-de-trabajo-45_491306.jpg|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo2_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo3_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo4_1.png?v=1704921444&amp;width=750|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_mesa-de-trabajo-6_258897.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_mesa-de-trabajo-5-copia_%2060410.jpg</t>
   </si>
 </sst>
 </file>
@@ -115,12 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,11 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADBA96A-21CA-4ECD-9963-3A5C3B8C1A9B}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1A4827-8481-4A28-9482-4A98454EB8C2}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,24 +468,16 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/excel-files/image/image-url.xlsx
+++ b/excel-files/image/image-url.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\BOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\belia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1FDA98F-1C01-4D1C-966C-FC64D3B7E00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9303C35C-2971-4463-A8B2-92D66EF2ECBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B9850FB-3DED-4EEE-9074-541AEF78CC97}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>SKU</t>
   </si>
@@ -44,16 +44,124 @@
     <t>url</t>
   </si>
   <si>
-    <t>COD454</t>
-  </si>
-  <si>
-    <t>https://importacionessumak.com/cdn/shop/files/Mesadetrabajo46-copia.jpg?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo2_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo3_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo4_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/BiotinGomitas_1.jpg?v=1704921444&amp;width=750</t>
-  </si>
-  <si>
-    <t>COD455</t>
-  </si>
-  <si>
-    <t>https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_mesa-de-trabajo-45_491306.jpg|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo2_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo3_1.png?v=1704921444&amp;width=750|https://importacionessumak.com/cdn/shop/products/Mesadetrabajo4_1.png?v=1704921444&amp;width=750|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_mesa-de-trabajo-6_258897.jpg|https://juntozstgsrvproduction.blob.core.windows.net/default-blob-images/orig_mesa-de-trabajo-5-copia_%2060410.jpg</t>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_cubierto-parrilleros2211.png?87&amp;time=1714766901|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-22833.jpg?87&amp;time=1714766901|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-33309.jpg?87&amp;time=1714766901</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_platos-azulea7237.jpg?87&amp;time=1714766903|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_platos-azulea-20736.jpg?87&amp;time=1714766903|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_platos-azulea-31052.jpg?87&amp;time=1714766903|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_platos-azulea-41248.jpg?87&amp;time=1714766903|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_platos-azulea-51577.jpg?87&amp;time=1714766903|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_platos-azulea-62363.jpg?87&amp;time=1714766903</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_edredon-58688.jpg?87&amp;time=1714766904|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_edredon-2-plazas9168.jpg?87&amp;time=1714766904|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_edredon9063.jpg?87&amp;time=1714766904|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_edredon29059.jpg?87&amp;time=1714766904|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_edredon39353.jpg?87&amp;time=1714766904|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_edredon49412.jpg?87&amp;time=1714766904</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-2-72889.jpg?87&amp;time=1714766906|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_12464867-sarten-electrica-cuadrada24671.jpg?87&amp;time=1714766906|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-15275.jpg?87&amp;time=1714766906</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-12-vasos-y-copas-celebra16985.jpg?87&amp;time=1714766907|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-12-vasos-y-copas-celebra24009.jpg?87&amp;time=1714766907|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_vasos-celebra-vida4181.jpeg?87&amp;time=1714766907|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_vasos-celebra4274.jpg?87&amp;time=1714766907</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-ti-tulo-20768.jpg?87&amp;time=1714766909|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_composicio-n-olla-arrocera0560.jpg?87&amp;time=1714766909|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_olla-arrocera-tapa0269.jpg?87&amp;time=1714766909|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_olla-arrocera-lata0361.jpg?87&amp;time=1714766909|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-ti-tulo-10758.jpg?87&amp;time=1714766909|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-ti-tulo-30957.jpg?87&amp;time=1714766909</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_63445.jpg?87&amp;time=1714766910|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-25690.jpeg?87&amp;time=1714766910|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_23321.jpg?87&amp;time=1714766910|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_33375.jpg?87&amp;time=1714766910|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_43435.jpg?87&amp;time=1714766910|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_53488.jpg?87&amp;time=1714766910|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_313435.jpg?87&amp;time=1714766910|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-13444.jpg?87&amp;time=1714766910</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-140964.jpg?87&amp;time=1714766912|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_et-de-3-fuentes-con-tapa-ecovidrio5597.jpg?87&amp;time=1714766912|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_dsc11690572.jpg?87&amp;time=1714766912|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-10778.jpg?87&amp;time=1714766912</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_mueble-de-cocina5539.png?87&amp;time=1714766914</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_wok-tramontina-23480.jpg?87&amp;time=1714766915|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-15599.jpg?87&amp;time=1714766915|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-3-46630.jpg?87&amp;time=1714766915|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_wok-tramontina9318.jpg?87&amp;time=1714766915</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_tazas-21884.jpg?87&amp;time=1714766917|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_tazas1784.jpg?87&amp;time=1714766917|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-de-8-mugs-porcelana8180.jpg?87&amp;time=1714766917</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_microsoftteams-image-68351.png?87&amp;time=1714766918|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-88058.jpg?87&amp;time=1714766918|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-78143.jpg?87&amp;time=1714766918</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-cobre-7-piezas6811.jpg?87&amp;time=1714766919|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sarten-3-en-17267.jpeg?87&amp;time=1714766919|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set8042.jpg?87&amp;time=1714766919</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-167985.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-12430.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-22540.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-32642.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-53519.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-63475.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-73246.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-93146.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-113341.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-123505.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-133820.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-143699.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-154250.jpg?87&amp;time=1714766921</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_electric-air-pot-48481.jpg?87&amp;time=1714766923|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_electric-air-pot-28667.jpg?87&amp;time=1714766923|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_electric-air-pot-38765.jpg?87&amp;time=1714766923|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_electric-air-pot-58948.jpg?87&amp;time=1714766923|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_electric-air-pot8935.jpg?87&amp;time=1714766923</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-18-platos-ecovidrio-foresti-19585.jpg?87&amp;time=1714766924|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_dsc11858277.jpg?87&amp;time=1714766924|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-18927.jpg?87&amp;time=1714766924</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_22465949-fuente-tramontina-12022.jpg?87&amp;time=1714766926|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_13668.jpg?87&amp;time=1714766926|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_23840.jpg?87&amp;time=1714766926|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_33930.jpg?87&amp;time=1714766926|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_43976.jpg?87&amp;time=1714766926|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_53978.jpg?87&amp;time=1714766926|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_64025.jpg?87&amp;time=1714766926</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-21872.jpg?87&amp;time=1714766927|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-32277.jpg?87&amp;time=1714766927|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-42631.jpg?87&amp;time=1714766927</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-3-48749.jpg?87&amp;time=1714766928|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-19170.jpg?87&amp;time=1714766928|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-29257.jpg?87&amp;time=1714766928|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-39430.jpg?87&amp;time=1714766928|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-49470.jpg?87&amp;time=1714766928|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-59439.jpg?87&amp;time=1714766928</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950129-0011282.jpg?87&amp;time=1714766930|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950129-0038324.jpg?87&amp;time=1714766930|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950129-0048330.jpg?87&amp;time=1714766930|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950129-0058383.jpg?87&amp;time=1714766930|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950129-7008747.jpg?87&amp;time=1714766930</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950159-0016121.jpg?87&amp;time=1714766932|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950159-0028780.jpg?87&amp;time=1714766932|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950159-0039054.jpg?87&amp;time=1714766932</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950164-0017537.jpg?87&amp;time=1714766933|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950164-0027533.jpg?87&amp;time=1714766933|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950164-0037573.jpg?87&amp;time=1714766933|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950164-0047597.jpg?87&amp;time=1714766933</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0011102.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0021105.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0031148.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0041118.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0051121.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0061157.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0071269.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0081302.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0091378.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-7001461.jpg?87&amp;time=1714766934</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_microsoftteams-image-40469.png?87&amp;time=1714766935|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_microsoftteams-image-6-11381.png?87&amp;time=1714766935|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_microsoftteams-image-5-11584.png?87&amp;time=1714766935</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_licuadora-personal-sc-36639.jpg?87&amp;time=1714766937|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_licuadora-whiteline-personal-silver-colection-16594.jpg?87&amp;time=1714766937|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_licuadora-personal-sc-31784.jpg?87&amp;time=1714766937</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-3-34373.jpg?87&amp;time=1714766938|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-de-ollas-behome19503.jpg?87&amp;time=1714766938|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_olla-64261.jpg?87&amp;time=1714766938|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_olla-21771.png?87&amp;time=1714766938|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_olla-31786.png?87&amp;time=1714766938|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_olla-41588.png?87&amp;time=1714766938</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950173-0012494.jpg?87&amp;time=1714766940||https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-15027.jpg?87&amp;time=1714766940|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-27042.jpg?87&amp;time=1714766940|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-35234.jpg?87&amp;time=1714766940|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-45713.jpg?87&amp;time=1714766940|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-55716.jpg?87&amp;time=1714766940</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_juego-de-cubiertos-26-piezas-behome2334.jpg?87&amp;time=1714766942|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_juego-de-cubiertos-26-piezas-behome-24405.jpg?87&amp;time=1714766942|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_juego-de-cubiertos-26-piezas-behome-42704.jpg?87&amp;time=1714766942|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_juego-de-cubiertos-26-piezas-behome-36229.jpg?87&amp;time=1714766942</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-2-86155.jpg?87&amp;time=1714766944|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-22534.jpg?87&amp;time=1714766944|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-32681.jpg?87&amp;time=1714766944|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-42760.jpg?87&amp;time=1714766944|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-72938.jpg?87&amp;time=1714766944</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-22537.jpg?87&amp;time=1714766945|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_dsc11631912.jpg?87&amp;time=1714766945|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_dsc11652658.jpg?87&amp;time=1714766945|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_cacerola-con-tapa-foresti1589.jpg?87&amp;time=1714766945</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-bowl-foresti-x69929.jpg?87&amp;time=1714766947|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-bowl-foresti-x6-29738.jpg?87&amp;time=1714766947|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-bowl-foresti-x6-39832.jpg?87&amp;time=1714766947|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-bowl-foresti-x6-49926.jpg?87&amp;time=1714766947</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-20638.jpg?87&amp;time=1714766948|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-31023.jpg?87&amp;time=1714766948|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-40833.jpg?87&amp;time=1714766948|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-51025.jpg?87&amp;time=1714766948|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-61028.jpg?87&amp;time=1714766948</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-b-sico-13590.jpg?87&amp;time=1714766949|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-b-sico-23892.jpg?87&amp;time=1714766949|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_36064.jpg?87&amp;time=1714766949|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_235884.jpg?87&amp;time=1714766949|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_454063.jpg?87&amp;time=1714766949</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-de-palanca-10069.jpg?87&amp;time=1714766950|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-de-palanca-20360.jpg?87&amp;time=1714766950|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-de-palanca-30495.jpg?87&amp;time=1714766950|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-de-palanca-40853.jpg?87&amp;time=1714766950|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-de-palanca-51273.jpg?87&amp;time=1714766950|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-de-palanca-61268.jpg?87&amp;time=1714766950</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sanguchera-3-en-1-12729.jpg?87&amp;time=1714766952|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sanguchera-3-en-1-24162.jpg?87&amp;time=1714766952|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sanguchera-3-en-1-47999.jpg?87&amp;time=1714766952|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sanguchera-3-en-1-57777.jpg?87&amp;time=1714766952|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sanguchera-3-en-1-68323.jpg?87&amp;time=1714766952</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-46866.jpg?87&amp;time=1714766953|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_microsoftteams-image-9-11265.png?87&amp;time=1714766953|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-26657.jpg?87&amp;time=1714766953|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-36754.jpg?87&amp;time=1714766953</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_pop-corn-maker-15499.jpg?87&amp;time=1714766955|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_pop-corn-maker-25757.jpg?87&amp;time=1714766955|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_pop-corn-maker-36332.jpg?87&amp;time=1714766955|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_pop-corn-maker-46464.jpg?87&amp;time=1714766955|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_pop-corn-maker-56625.jpg?87&amp;time=1714766955</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0002538.jpg?87&amp;time=1714766956|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0013057.jpg?87&amp;time=1714766956|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0023067.jpg?87&amp;time=1714766956|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0033085.jpg?87&amp;time=1714766956|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0043130.jpg?87&amp;time=1714766956|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0053142.jpg?87&amp;time=1714766956|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0063158.jpg?87&amp;time=1714766956|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0083226.jpg?87&amp;time=1714766956</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950153-0019179.jpg?87&amp;time=1714766958|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_22469982-reposa-ollas-leo-bh-32001.jpg?87&amp;time=1714766958|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950153-0012187.jpg?87&amp;time=1714766958|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950153-0022197.jpg?87&amp;time=1714766958</t>
+  </si>
+  <si>
+    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950314-0011706.jpg?87&amp;time=1714766960|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950314-0022465.jpg?87&amp;time=1714766960|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950314-0032663.jpg?87&amp;time=1714766960</t>
   </si>
 </sst>
 </file>
@@ -72,6 +180,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -448,13 +557,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1A4827-8481-4A28-9482-4A98454EB8C2}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="37.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -465,19 +577,323 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>12464664</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>12464671</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>12464805</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>12464867</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>12464868</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>12464900</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>12464966</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>12464979</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>12465044</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>12465120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12467638</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>22460319</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>22460330</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>22460357</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>22460397</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>22465240</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>22465949</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>22467803</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>22467805</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>22469011</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22469013</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22469014</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22469032</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22469038</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>22469056</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>22469231</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>22469349</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>22469621</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>22469646</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>22469647</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>22469687</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>22469777</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>22469787</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>22469799</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>22469802</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>22469881</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>22469956</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>22469980</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>22469982</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>22469984</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/excel-files/image/image-url.xlsx
+++ b/excel-files/image/image-url.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\belia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\nataly\marvelou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9303C35C-2971-4463-A8B2-92D66EF2ECBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C528A3DB-62C2-4C21-A085-9FF7AFB5D3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B9850FB-3DED-4EEE-9074-541AEF78CC97}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="290">
   <si>
     <t>SKU</t>
   </si>
@@ -44,124 +44,868 @@
     <t>url</t>
   </si>
   <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_cubierto-parrilleros2211.png?87&amp;time=1714766901|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-22833.jpg?87&amp;time=1714766901|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-33309.jpg?87&amp;time=1714766901</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_platos-azulea7237.jpg?87&amp;time=1714766903|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_platos-azulea-20736.jpg?87&amp;time=1714766903|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_platos-azulea-31052.jpg?87&amp;time=1714766903|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_platos-azulea-41248.jpg?87&amp;time=1714766903|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_platos-azulea-51577.jpg?87&amp;time=1714766903|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_platos-azulea-62363.jpg?87&amp;time=1714766903</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_edredon-58688.jpg?87&amp;time=1714766904|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_edredon-2-plazas9168.jpg?87&amp;time=1714766904|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_edredon9063.jpg?87&amp;time=1714766904|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_edredon29059.jpg?87&amp;time=1714766904|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_edredon39353.jpg?87&amp;time=1714766904|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_edredon49412.jpg?87&amp;time=1714766904</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-2-72889.jpg?87&amp;time=1714766906|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_12464867-sarten-electrica-cuadrada24671.jpg?87&amp;time=1714766906|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-15275.jpg?87&amp;time=1714766906</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-12-vasos-y-copas-celebra16985.jpg?87&amp;time=1714766907|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-12-vasos-y-copas-celebra24009.jpg?87&amp;time=1714766907|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_vasos-celebra-vida4181.jpeg?87&amp;time=1714766907|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_vasos-celebra4274.jpg?87&amp;time=1714766907</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-ti-tulo-20768.jpg?87&amp;time=1714766909|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_composicio-n-olla-arrocera0560.jpg?87&amp;time=1714766909|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_olla-arrocera-tapa0269.jpg?87&amp;time=1714766909|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_olla-arrocera-lata0361.jpg?87&amp;time=1714766909|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-ti-tulo-10758.jpg?87&amp;time=1714766909|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-ti-tulo-30957.jpg?87&amp;time=1714766909</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_63445.jpg?87&amp;time=1714766910|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-25690.jpeg?87&amp;time=1714766910|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_23321.jpg?87&amp;time=1714766910|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_33375.jpg?87&amp;time=1714766910|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_43435.jpg?87&amp;time=1714766910|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_53488.jpg?87&amp;time=1714766910|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_313435.jpg?87&amp;time=1714766910|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-13444.jpg?87&amp;time=1714766910</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-140964.jpg?87&amp;time=1714766912|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_et-de-3-fuentes-con-tapa-ecovidrio5597.jpg?87&amp;time=1714766912|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_dsc11690572.jpg?87&amp;time=1714766912|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-10778.jpg?87&amp;time=1714766912</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_mueble-de-cocina5539.png?87&amp;time=1714766914</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_wok-tramontina-23480.jpg?87&amp;time=1714766915|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-15599.jpg?87&amp;time=1714766915|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-3-46630.jpg?87&amp;time=1714766915|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_wok-tramontina9318.jpg?87&amp;time=1714766915</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_tazas-21884.jpg?87&amp;time=1714766917|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_tazas1784.jpg?87&amp;time=1714766917|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-de-8-mugs-porcelana8180.jpg?87&amp;time=1714766917</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_microsoftteams-image-68351.png?87&amp;time=1714766918|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-88058.jpg?87&amp;time=1714766918|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-78143.jpg?87&amp;time=1714766918</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-cobre-7-piezas6811.jpg?87&amp;time=1714766919|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sarten-3-en-17267.jpeg?87&amp;time=1714766919|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set8042.jpg?87&amp;time=1714766919</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-167985.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-12430.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-22540.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-32642.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-53519.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-63475.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-73246.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-93146.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-113341.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-123505.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-133820.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-143699.jpg?87&amp;time=1714766921|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-galant-154250.jpg?87&amp;time=1714766921</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_electric-air-pot-48481.jpg?87&amp;time=1714766923|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_electric-air-pot-28667.jpg?87&amp;time=1714766923|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_electric-air-pot-38765.jpg?87&amp;time=1714766923|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_electric-air-pot-58948.jpg?87&amp;time=1714766923|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_electric-air-pot8935.jpg?87&amp;time=1714766923</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-18-platos-ecovidrio-foresti-19585.jpg?87&amp;time=1714766924|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_dsc11858277.jpg?87&amp;time=1714766924|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-18927.jpg?87&amp;time=1714766924</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_22465949-fuente-tramontina-12022.jpg?87&amp;time=1714766926|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_13668.jpg?87&amp;time=1714766926|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_23840.jpg?87&amp;time=1714766926|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_33930.jpg?87&amp;time=1714766926|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_43976.jpg?87&amp;time=1714766926|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_53978.jpg?87&amp;time=1714766926|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_64025.jpg?87&amp;time=1714766926</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-21872.jpg?87&amp;time=1714766927|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-32277.jpg?87&amp;time=1714766927|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-42631.jpg?87&amp;time=1714766927</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-3-48749.jpg?87&amp;time=1714766928|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-19170.jpg?87&amp;time=1714766928|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-29257.jpg?87&amp;time=1714766928|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-39430.jpg?87&amp;time=1714766928|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-49470.jpg?87&amp;time=1714766928|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-59439.jpg?87&amp;time=1714766928</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950129-0011282.jpg?87&amp;time=1714766930|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950129-0038324.jpg?87&amp;time=1714766930|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950129-0048330.jpg?87&amp;time=1714766930|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950129-0058383.jpg?87&amp;time=1714766930|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950129-7008747.jpg?87&amp;time=1714766930</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950159-0016121.jpg?87&amp;time=1714766932|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950159-0028780.jpg?87&amp;time=1714766932|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950159-0039054.jpg?87&amp;time=1714766932</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950164-0017537.jpg?87&amp;time=1714766933|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950164-0027533.jpg?87&amp;time=1714766933|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950164-0037573.jpg?87&amp;time=1714766933|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950164-0047597.jpg?87&amp;time=1714766933</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0011102.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0021105.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0031148.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0041118.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0051121.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0061157.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0071269.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0081302.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-0091378.jpg?87&amp;time=1714766934|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1100189-7001461.jpg?87&amp;time=1714766934</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_microsoftteams-image-40469.png?87&amp;time=1714766935|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_microsoftteams-image-6-11381.png?87&amp;time=1714766935|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_microsoftteams-image-5-11584.png?87&amp;time=1714766935</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_licuadora-personal-sc-36639.jpg?87&amp;time=1714766937|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_licuadora-whiteline-personal-silver-colection-16594.jpg?87&amp;time=1714766937|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_licuadora-personal-sc-31784.jpg?87&amp;time=1714766937</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-3-34373.jpg?87&amp;time=1714766938|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-de-ollas-behome19503.jpg?87&amp;time=1714766938|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_olla-64261.jpg?87&amp;time=1714766938|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_olla-21771.png?87&amp;time=1714766938|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_olla-31786.png?87&amp;time=1714766938|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_olla-41588.png?87&amp;time=1714766938</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950173-0012494.jpg?87&amp;time=1714766940||https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-15027.jpg?87&amp;time=1714766940|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-27042.jpg?87&amp;time=1714766940|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-35234.jpg?87&amp;time=1714766940|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-45713.jpg?87&amp;time=1714766940|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sin-t-tulo-55716.jpg?87&amp;time=1714766940</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_juego-de-cubiertos-26-piezas-behome2334.jpg?87&amp;time=1714766942|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_juego-de-cubiertos-26-piezas-behome-24405.jpg?87&amp;time=1714766942|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_juego-de-cubiertos-26-piezas-behome-42704.jpg?87&amp;time=1714766942|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_juego-de-cubiertos-26-piezas-behome-36229.jpg?87&amp;time=1714766942</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-2-86155.jpg?87&amp;time=1714766944|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-22534.jpg?87&amp;time=1714766944|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-32681.jpg?87&amp;time=1714766944|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-42760.jpg?87&amp;time=1714766944|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-72938.jpg?87&amp;time=1714766944</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-22537.jpg?87&amp;time=1714766945|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_dsc11631912.jpg?87&amp;time=1714766945|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_dsc11652658.jpg?87&amp;time=1714766945|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_cacerola-con-tapa-foresti1589.jpg?87&amp;time=1714766945</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-bowl-foresti-x69929.jpg?87&amp;time=1714766947|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-bowl-foresti-x6-29738.jpg?87&amp;time=1714766947|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-bowl-foresti-x6-39832.jpg?87&amp;time=1714766947|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_set-bowl-foresti-x6-49926.jpg?87&amp;time=1714766947</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-20638.jpg?87&amp;time=1714766948|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-31023.jpg?87&amp;time=1714766948|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-40833.jpg?87&amp;time=1714766948|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-51025.jpg?87&amp;time=1714766948|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-61028.jpg?87&amp;time=1714766948</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-b-sico-13590.jpg?87&amp;time=1714766949|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-b-sico-23892.jpg?87&amp;time=1714766949|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_36064.jpg?87&amp;time=1714766949|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_235884.jpg?87&amp;time=1714766949|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_454063.jpg?87&amp;time=1714766949</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-de-palanca-10069.jpg?87&amp;time=1714766950|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-de-palanca-20360.jpg?87&amp;time=1714766950|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-de-palanca-30495.jpg?87&amp;time=1714766950|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-de-palanca-40853.jpg?87&amp;time=1714766950|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-de-palanca-51273.jpg?87&amp;time=1714766950|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_exprimidor-de-palanca-61268.jpg?87&amp;time=1714766950</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sanguchera-3-en-1-12729.jpg?87&amp;time=1714766952|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sanguchera-3-en-1-24162.jpg?87&amp;time=1714766952|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sanguchera-3-en-1-47999.jpg?87&amp;time=1714766952|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sanguchera-3-en-1-57777.jpg?87&amp;time=1714766952|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_sanguchera-3-en-1-68323.jpg?87&amp;time=1714766952</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-46866.jpg?87&amp;time=1714766953|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_microsoftteams-image-9-11265.png?87&amp;time=1714766953|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-26657.jpg?87&amp;time=1714766953|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_img-36754.jpg?87&amp;time=1714766953</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_pop-corn-maker-15499.jpg?87&amp;time=1714766955|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_pop-corn-maker-25757.jpg?87&amp;time=1714766955|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_pop-corn-maker-36332.jpg?87&amp;time=1714766955|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_pop-corn-maker-46464.jpg?87&amp;time=1714766955|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_pop-corn-maker-56625.jpg?87&amp;time=1714766955</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0002538.jpg?87&amp;time=1714766956|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0013057.jpg?87&amp;time=1714766956|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0023067.jpg?87&amp;time=1714766956|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0033085.jpg?87&amp;time=1714766956|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0043130.jpg?87&amp;time=1714766956|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0053142.jpg?87&amp;time=1714766956|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0063158.jpg?87&amp;time=1714766956|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-1108187-0083226.jpg?87&amp;time=1714766956</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950153-0019179.jpg?87&amp;time=1714766958|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_22469982-reposa-ollas-leo-bh-32001.jpg?87&amp;time=1714766958|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950153-0012187.jpg?87&amp;time=1714766958|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950153-0022197.jpg?87&amp;time=1714766958</t>
-  </si>
-  <si>
-    <t>https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950314-0011706.jpg?87&amp;time=1714766960|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950314-0022465.jpg?87&amp;time=1714766960|https://dojiw2m9tvv09.cloudfront.net/85998/product/X_web-3950314-0032663.jpg?87&amp;time=1714766960</t>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/05/80e9c8e8-2012-4805-991c-c25c1bc5e545-3-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2024/05/64d88c7e-a306-431e-ba88-02330aa447ba-1-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2024/05/9000e8e3-556c-4d2b-929f-bd8e9906c244-1-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2024/05/5d0c5445-ad17-416e-a59e-add2354cbd52-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/09/b0a2c88f-565c-4145-a3c2-388bd4641dc4-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/719fc96f-0c40-43e1-81eb-9290aa2801b3-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/05/c5e295a1-5796-46aa-9035-a09b1538755c-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2024/05/4583dae9-8ab0-43c0-b5e2-3e064137b447-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/05/bb5ff618-b0c8-40bd-b025-a9736ee7064b-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/06/ae48d3c1-bdc5-4c98-bcad-ab4da33d3031-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2024/06/843441a6-09fb-4387-a3e0-74a1acfe1f3c-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/05/90d208ad-a718-4e82-a448-5a0163e0db8e-3-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/749792b3-0d4a-4ec3-93c0-1360cfe2ef64-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2024/05/81c89245-7a2a-4ff9-a316-b5b8fe2a7688-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/b469381f-7e98-48af-bd2a-7671998bfe91-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/32b62dc0-81f7-48c2-991f-f1a70833c633-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/2237c8c5-bcc1-445a-9ed5-e4ac51fdb2e3-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/7e430419-9d8e-4ce9-b3b6-c3717753f45c-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/8c37b07f-7315-463f-95f2-8202416ef427-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/bb22e8a0-0fa0-4d85-895f-4c6eb29e8ec7-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/9d45b322-cd57-453c-8b8b-9f111050e29b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/4c0f7b56-a020-4c8d-aa44-95f7aa033448-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/cdd2106b-4cb6-4c21-9faf-4b456d38d2aa-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/a05dadd8-1038-4a97-8198-6e3af7ef6eba-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/09/d1662118-c047-4b97-8452-908b2e7d6fde-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/05/2abe1f85-4958-4c90-a3c6-dc19b104c289-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/f2ecab84-1c4f-4852-a634-4fa9537073ca-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/79ebb44e-2002-4495-b394-06252c8ba76f-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/09/6beff90d-b5de-437d-831d-cbd2e508150a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/cd1ffba0-ed90-4eb5-b016-02dd626d30df-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/cba9906f-9a85-4acc-a146-882f8dc4830a-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/87919c24-2024-4c35-b4c8-689727e45aa2-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/659b962c-473d-4f33-89a7-b000414dad41-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/7ad9a9c5-3964-4eaa-8560-915c7f235efe-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/09/799ac654-7309-46aa-9585-f0954f614b21-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/e584ef47-1a17-476b-8ea3-7199eb7c4ff4-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/f2efd064-a292-41a2-bf0d-436b3bdb083e-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/06/b0e661d8-7ae4-4398-8fc3-91dbb52838f4-2-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2024/06/26d997b5-d05a-4d58-baec-da92cc007cce-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/06/db8a41bd-a9ba-4275-a673-c1cd3ae7d30a-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2024/06/fcf5e644-a3d1-4627-91fc-c780026efb54-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/bb66a70d-3c49-4593-8a1b-57f1fafb9c8f-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/09/a2ac507d-a260-4308-bddc-5db5da5a0734-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/fed75176-93b8-4057-b7a0-c7ce5597211a-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/4819bbbf-275c-4f2a-aaed-9f749bbbb2c9-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/a73db26b-ed2c-4073-b382-188dae657002-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/bdaffc25-e16a-4937-a3bc-3134edd5ea26-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/0f06d9aa-cfab-48a9-9a17-f0ec3d74068e-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/8a0df444-2aba-48e0-9fe8-b970be9f126f-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/05ae601e-6d1b-4d6c-a51e-9e1f836f3038-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/d4dbc0bf-b649-4da5-8fa5-025db373eef3-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/0717941f-93d9-4bdd-8326-86d6c841130e-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/9fb2b531-7b2c-4a0f-a46b-7cdbc60819dc-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/06/792aa764-9722-4652-ace5-0648fe34ef53-1-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2024/06/2c86a477-fc55-490f-8ef0-bb61a448789f-2-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2024/06/654cb00b-865a-45da-8b78-984f459534f2-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2024/06/db45c0ea-cd35-4037-93af-4d42e7200f79-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/05/cf39bb53-4c07-4dc9-9c3c-99422234e999-1-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/cf80a4f1-6946-43a3-baa1-cc6d973d6e36-1-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/970db6a6-e99a-4900-83c7-530d753dae96-1-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/9b455373-1b5b-4ad7-bcb5-3929d008a044-1-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/65635371-d6d5-460b-b3a2-297d09a9aa47-1-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/035f4132-19bf-43f3-b680-84ba100b5580-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/c283247b-9532-4f52-9816-f2f7d8fb3978-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/ebf0a683-1afa-44d4-ba1f-6b538493d3ba-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/1e5feb83-73d9-4eda-9b78-dc7552a687de-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/459c8b7b-c573-4702-8bc4-6bad6772cd7c-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/09/2632c920-2aa5-40b2-84a6-27014aa87a55-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/0e840a38-3521-45e5-b375-a41cdd92fc7b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/3720bcdd-8d81-482f-b6f7-03cbc9b642a6-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/4b044b37-b6c7-439f-8e56-e35f90a92920-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/62cc7fa7-5499-4fc6-9643-28f7d7dccca8-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/854aedf8-fee6-4304-9f57-3b1159eafebf-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/ebe152fd-8bdb-4d5e-88e8-11917236be58-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/67a85b8f-4cca-4dfd-af70-9b634cde12c0-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/64c89d8e-0362-478d-b534-7de3613c4790-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/09/32144baa-8cf8-4450-81a7-3eb96ce7b7dd-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/38b966ed-1384-417b-bade-4fa1bb6ec3e5-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/9f6b79d4-8d71-41af-a525-bc773f461cce-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/cde74dde-8903-4a55-8c08-77eee6ed6f57-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/5ee3c3da-669b-457b-b5e4-4aa87a9106ef-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/5ed034cc-4a88-4f53-bd7a-d2be791073a1-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/88321b10-5496-48ad-9273-2ca6ed6d8e1e-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/5e280a30-5e3e-46e7-a25d-1950c0eee52b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/e6efed50-6cec-4d0b-9497-3f8445f63601-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/01/efc22934-46be-4dcd-a919-ea86378b1aad-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/01/7ae755f9-7928-4c49-84a9-79636609f4a7-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/01/6203bbb0-383d-49bb-a624-0b44b952782f-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/01/976fd301-4b3a-4365-80b7-01dec405640a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/01/22b80c26-91d1-4250-a93b-8bfcc1301955-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/03/11059404-893c-4aa4-b9d1-34c183b9d5ed-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/a3415634-c7e7-497a-9001-98226c84821b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/fb5956fd-54bf-45c2-aab7-9e7ed84a39c8-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/a9a1f79c-f962-47ff-b0e0-03f536167931-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/03/7ceebbac-7e52-44dd-9574-738b6560c8ec-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/a3e945eb-0765-45b4-b30a-2407257cedee-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/1e759d1e-6d11-40ba-9b13-9969822868a1-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/03/c48a8c1f-0970-4d49-9c47-9d54ebd20437-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/ff9f4c04-2fcf-43ee-a630-f67c85ec2089-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/03ab6e80-168e-427d-88e8-bebbe0e71064-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/2ba24229-8ae4-4055-89f5-64330c8e2f62-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/04/890f7b3a-4e27-4068-9a75-52262beea9e1-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/144a0a13-847c-446e-9559-8cd9ad1c3ec3-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/cd23f240-e8a9-441b-b8c5-8bfd757af806-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/e1a5d2dc-8945-4d0d-908e-8cd736a03a38-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/72b82aff-9fa0-4c01-95ad-a2f0257ca4c1-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/04/4a214d00-bce1-485d-8fa2-ae2109d5be7d-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/71b95ab5-6255-428e-a213-fbe99247d087-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/f5dfc064-c59c-4533-bcf9-0334b2fc0396-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/eae95f6b-0984-4b65-af22-167d7b46302e-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/04/dffab643-8b1c-4e95-ac85-986bc0155c9c-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/fd71b19e-ef01-4266-9abd-f924b6116348-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/4dd21680-ad48-4e79-90b7-241565acac6b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/de7b8463-7f87-4d62-87e7-ca00872c0f03-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/04/62134533-4f41-4eeb-883c-3182e8ef177f-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/5313335a-72b8-4cef-b3bd-491bdd8a49ff-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/04/35e77cc4-1e3b-42b4-b3fc-02f68963412b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/45768639-4b4c-453a-96bb-806c852e0349-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/ed1d9521-f253-410c-89f7-bbce4ff783c0-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/cb0612ee-af17-4c57-8786-8ab9f3d02a07-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/48c0e000-e5bc-4653-b70f-9f312994039e-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/09/baf1a3cf-3011-4a83-a970-59985cc5e037-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/54367539-0424-446b-9db2-d53fc1b4cdaa-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/c86da5c3-e2b5-4f3b-babd-b1eaf24b7a34-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/f8a598f9-198d-46e6-a7a5-bd34dce38ac2-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/25273451-d0af-4674-ad23-100fa0708352-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/535faf21-7d9a-4ec7-a606-b62e20ce0f86-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/b6c732da-b0f9-4998-91a1-789f7952eb2b-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/a58c0a85-0464-406a-9d92-c62781f435de-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/0aab1039-4828-4785-958e-eb2002e98876-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/e77617ac-26a9-4c5f-b4e2-bc8fd596afe1-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/9d965ea9-e6fb-410b-acdb-53200cae82f4-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/da7fe740-cb04-4fdb-a667-98d586b7b858-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/da2e633f-2002-4fea-b91a-356a3844cd8c-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/6e5880b7-0c8f-44ac-ab21-80e6be8b0dc6-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/f606aa40-d4af-4ac0-9abf-fd48fef2ec8a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/6e5880b7-0c8f-44ac-ab21-80e6be8b0dc6-1-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/b93d6202-848f-4198-83a4-67a79d1b1404-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/03565905-a446-4aa0-bf3f-6e35df8e1042-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/8607e0a7-d8a2-4ba3-8840-e70e46414e8d-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/b57a42e6-7821-4ca4-9538-72d8bcab5f7d-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/cebd3f42-ee88-4612-ae29-0901ff0fbb78-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/c656fad2-b945-484b-8e99-21f0b486eac4-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/e30ef002-65c1-4969-ade7-f4fcf36709f5-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/b27837a9-2ba7-4045-8cb9-28994d8a2044-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/03/89565325-2f09-4c6f-a9fd-cbff8d84ad55-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/eb3d15e7-0c51-4170-985a-3aeb5660cabf-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/4a9441cc-b667-4c53-a172-817cf0fc5969-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/05/22580e0a-7caa-4d40-8482-845396aa6508-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/cccc14c2-f7dc-4f85-b81e-2e0f8524bb7b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/d1c90cf6-7211-452f-844b-389fb84aefd6-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/04/19206266-2c59-4502-8345-adf65be60ab4-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/db71549a-7c72-4523-8f84-126ac349a21a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/01f4f34b-bfd9-4e73-bd5d-1d63ee699595-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/97ecb81e-3b49-4a42-9f95-337db2ed21cb-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/56d5158b-8026-4675-962c-07225a6cac5b-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/04/f8721396-e652-47fa-aa19-00eb8695a652-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/6161a809-f1d7-4231-ba99-ab6f086f117e-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/c84384ed-987b-4654-b882-1a9bb2c747b9-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/4d9fabed-87fb-4a19-9cba-4d027bb01478-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/04/eccb21ee-5953-4134-b138-574e74a24178-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/416a1298-4499-4f55-8e8f-a7d09580fa44-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/146c13db-4472-4e4e-8f07-b4e724b43aaa-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/4a89e512-4a47-4089-942a-b75004e1a07d-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/05/e97296a3-00c2-4b73-a812-35708ded8d7f-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/f9164423-aa17-421b-8281-6debb93a51f0-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/0fe702e8-c3a7-4d0c-ad39-aa0adc21c300-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/659ac6f1-572c-4e2d-bd84-dceb815e603b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/d9b649e4-8fb1-4a90-95f9-df5f972650a1-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/05/ee06432d-27ed-4441-8ad1-ac8e8658840e-1-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/af63eddf-cd5e-4d36-8db9-2341e5488307-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/f8fdb196-b1b5-411e-bb05-fdba76b52b13-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/0e7f7d1c-5f0e-4d7e-8cf9-5f785161893a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/703bfff5-204b-479e-abec-1e30e528c64d-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/05/dcd042ff-9685-4e35-8858-504a6add827a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/c4e1420b-190e-4151-a0d1-7bcbaf83f632-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/063c0021-9bf6-401d-b6dd-60a2ce3a8320-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/7a9de579-929a-4239-838e-322eff096c3b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/add04047-e6a7-4313-90db-514d7e9da2fe-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/275bd983-bc5d-4e90-b31b-e4858fbae3a1-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/05/cebfa1a2-ac36-4374-9386-738758d9026c-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/083bbfb3-37a1-4149-9e37-dd539485b3e2-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/3a997139-2a23-48e4-8d5d-ac29fddac362-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/567ba778-fab3-43bd-9b54-09eda194cc8a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/e4315696-be6f-43b1-b4c3-cb0a52c71a4f-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/565230be-51d4-4ed7-b333-d632210085e2-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/af311fc3-3f7c-46c2-b246-2cb9df551dab-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/f6c731d7-4b5a-43c3-8871-69ac530c342a-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/05/b2347185-fb7d-477d-80c4-f242328bd78c-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/2a1b7fc5-ca82-42b0-9a64-22720d3e3b64-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/0d0ab018-fcd6-4c06-897e-3735c7bcb278-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/d7a9d9ab-203e-4c83-81d6-6a7b0f0247b1-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/03/84edced2-e3ad-4a73-951c-1425b57c37b7-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/a52740e3-b5ad-4629-add3-d61e1bf5657c-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/cce79535-d2d9-4071-8471-4d0b60db0abe-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/bbae1fd4-d392-4362-a9d6-c2e5793d1fd9-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/02/c9162fa6-b4b0-4b06-b073-cb568a7f0aa7-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/02/87f9be1f-a45d-4e3e-869f-68244afe8482-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/ef0fcb22-b8af-46b5-96c9-5a040a42592f-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/da492d98-72e3-424b-9aef-ea4e3af1b264-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/e7ade476-f03e-41e5-b254-786d4999ebb5-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/61811f56-3727-4046-8704-be96227ce038-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/ef4a7dea-463a-4c63-969b-9c2b2b07aaf7-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/3fe72318-7999-4e13-9bf2-cc606fbe3f06-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/3eb40d62-f2c5-49d6-ba54-ae36606b6fb2-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/5a0d0e74-f6ef-431d-94e2-af5e7482386c-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/3585359a-0fc8-477d-b437-865fe099d64a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/7e416055-34b1-452f-ad8f-77a668a37002-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/3c2d0823-f87c-44a8-992f-7f3618dce9ac-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/de234937-897e-4086-91dd-0cd2b68080ff-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/7a32ea5e-1ff5-400d-b4ad-7386d64c78cc-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/97260980-f304-47bf-b0f6-42a6a4315779-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/09/7e2cfd75-cfb7-4b0b-b1cd-54b0a4e463d8-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/e419fd96-300c-481c-9985-22779f0453e5-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/814157b0-3f3a-4244-9aa2-5a774ffc564b-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/05/8b707e61-3822-4ce4-8a12-1554deaeaeb8-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/6e31c9e9-9f7e-4742-b455-b6df7aa81744-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/7a1208ec-b29d-4088-9c58-1daa65ab859c-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/09/274f8ae6-a687-4789-b162-8465299922e7-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/818632db-9811-473f-a375-296a69c9d442-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/51eeb829-5649-4944-932d-b0f6b3b4daef-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/09/0fdce95e-2872-47b3-9407-fba4594e979c-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/10/855deebe-9168-42e1-ac90-0b6be1f64b60-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/13723437-34ec-43b0-b827-1115caf3f082-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/af544566-4764-4530-b49d-286b6e361785-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/bc140286-ae78-460c-9081-ae99f551c4ce-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/20fecbec-1103-4006-8a3a-b7f7ad595254-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/24987e4a-51ef-4bf3-bc55-608251fe9212-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/7ea09d0d-a42a-4b6e-a2b6-2e9c08903f2e-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/e6c4c987-8f69-477e-8733-4c3e093f61d3-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/bd0a2a4d-1621-4314-8619-4eb3b1898d68-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/bec78ba4-77c6-4d11-9da2-cf35cbc675d2-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/5dacde45-384d-46e7-9247-cba1678a4c0a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/d94e1b15-6b39-4702-9af3-5c0aa0599384-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/2398a7d5-c263-4451-8663-b7e68190230a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/62088c1c-d41b-4b05-afbe-f4edc66c2a9b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/0736b846-c634-40db-9f16-4ba68c4366ff-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/119124df-1c7a-483e-84a2-14da54b58455-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/f06dae5e-aaa4-4edf-8dc6-f7159c52517c-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/dcff2310-a3c0-42d9-af5f-1b2f40798fc9-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/38a18870-cfe8-4af1-bbfa-598ca93f710d-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/b4e96892-1995-4545-962f-e2dbdd73ee92-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/575a193c-7481-4e21-b042-6318c6bd021f-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/2bf5acbc-5eda-4944-8c16-b23c346b8656-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/dd4ae408-65f9-453a-a862-3886e489c2bf-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/14065fb5-3675-4966-9764-f890f6891c90-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/6d0bec4b-f022-452f-b231-4ba506f19ffc-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/5515efee-b293-46f9-967f-d273a8cc18ff-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/3e7c7abe-97a7-4af0-ac7d-77220fe89e18-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/69f9e9ef-502a-483c-afed-f0a9f7dc4ee9-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/acec8fd4-ade6-464f-bf72-8fb1a2ce1476-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/7f152c3c-3333-4842-acf5-c8a0312c7609-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/85576b35-fd79-4cd5-b8ab-6335177093d0-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/18e3aafd-62ef-43bc-be9f-afa8c2ed0a9d-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/76accb71-9b2b-4e5d-a780-a83016168986-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/682010c8-560f-4a29-a054-a0f13dd1a6ab-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/2ca50cb0-f82d-40c2-b321-355db5eb5128-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/8de8cb0b-d0ec-42d8-af90-282cc3d01f78-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/97caff1b-971f-4715-b764-fd2f396873a6-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/9fd0bc3e-0093-4408-9f0f-09f011dc5e3f-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/cfb490f9-1d7f-47a5-bacd-7019c64122c0-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/d24bbee9-f856-4d52-a35e-5a8bbd34066a-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/c419790b-95cf-4cf1-a56d-ff22cdc04a29-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/81d17a2a-8870-44af-95eb-aea8b0cab74d-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/63b82ba9-0d9f-4874-bfb9-2a5e186b30a6-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/cc25c079-91aa-4d33-936f-8e70054faee9-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/e05c52a2-e378-43bd-b2e9-ee6a7611cea9-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/675786f9-1bc4-4038-adfe-c961192e51a7-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/a1d616b0-5c2a-4b0f-8c10-d6ccd54f2ed3-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/5004ffba-285f-4134-b173-63fe9776bf7b-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/f1b44d16-ab83-4153-a80d-e31b831d8eb1-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/8f828c29-8ed9-4351-9970-869dac677e47-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/24a58d7e-0d32-43fa-aab9-4f961105591a-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/04dc8e66-64e9-4ccb-9551-bd5220d842ca-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/0a1ad3ae-25e2-4f9e-ac42-0d7e89698169-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/d6637bcc-ea00-4ca4-832f-7a20c9d5d5b2-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/bdab8c4c-6fc5-4a45-9d4c-73514b457461-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/ea17c50b-8f0a-46d9-9609-83c680d12886-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/66356974-8bc6-4218-a378-3e95fa2276c2-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/a63a456a-2c1b-45cd-996f-3a5287d94547-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/f96c5fd3-ecf6-4475-80f0-655e18b133d3-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/74291ec8-a66b-4d4f-aa78-835c146543d4-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/a37397ce-e79d-467f-ae5a-daf21f5e8271-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/d58f8ea7-8cbb-4109-a235-3f85c4dc3797-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/516c0344-a8a6-499a-9513-5fd0c424634e-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/c1ca9f1e-887d-4f98-97f3-6578ad2207b9-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/fcd85bab-0ea8-49cb-9a7d-f885f03c550a-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/991d1ff0-f66b-4b60-9f36-663ee502fd60-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/73093773-a81e-435e-8199-e8a7f0d17ba4-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/f8b7863e-757a-47a3-80b5-629a123b8d7b-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/b13cacd8-70ab-4178-a22e-700f19d98050-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/fecfa102-c5ac-4501-b13a-9eea3a6fb227-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/10/8af3f90f-811d-43b7-b0d7-c08c2e433f7c-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/f0954beb-3863-4b37-a058-bff681033295-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/359e7d70-5e5e-4268-923d-172dd2df4395-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/d9bfc0dc-0a90-403b-a080-9834a87597c4-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/788fc48f-7478-417b-b3b8-fe8a35c72864-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/234ece2b-dd71-4f1e-a96d-803b7294b4d6-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/aee6aad8-529e-49e9-96ef-302bd15efb21-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/dd9b29fe-3462-483e-b83d-796a322cd773-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/ea376c76-e224-46b7-be87-69f894d7fd55-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/f1ab3e55-c369-49e7-b6a3-970a52591998-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/b0786421-93dc-485f-8232-e7611134bfb4-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/528356ed-6d59-43d8-8e87-164eb6e38e99-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/79b5a676-8258-4391-9627-e0c06435d548-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/04ffe935-4a5a-4b6b-819a-b20e8ae15859-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/9e1b8432-34ee-4282-8213-d8a4065e68b0-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/5c25f7ac-31b0-483b-bda1-cafaa6aa63ce-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/1336efa5-2f39-4d61-afba-0740b87ad184-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/683f9258-50c8-4de1-a2be-7c52831a2c87-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/12f17faa-62a6-40e5-9fad-db6a16612c1f-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/4030a10f-d636-4ef2-a258-fd8af0ed4af5-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/d78a4bfd-f025-4bf4-a2d8-56b1f125be95-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/751a42b4-20c2-4603-8f91-c241ef8a9d82-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/448ce59b-636d-4297-925d-a5eacb7bce57-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/282fdb1a-8d05-4e8e-96d9-b7a22fe23604-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/5f984365-5986-4269-b164-c327ea8b6e94-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/7d24eb73-f564-40d1-a450-1e6ab2db3f17-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/27ec9d00-66c3-47fa-8324-57f4301e7624-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/59569746-9434-4108-9788-9dbd87f206e8-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/9b0dd570-2d38-4f71-8f11-4d58628eb507-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/e59ab4e2-2234-4034-961d-5f7ca5557987-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/7e45a0aa-063a-4344-b070-9617817e8ead-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/ddc88675-a401-43be-b385-fc895dedf0bd-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/39977af8-ab2e-49b0-ad1f-5ce6c9ffb00a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/e8cc2568-cfc2-4742-a639-1a55fdd3d4f3-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/de18c545-02ed-43e8-bf9f-e72a3a7587d0-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/43d125e2-35a4-42d2-b6d1-76791f4b2b38-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/7b258bb6-d9ed-4893-b324-29f42e61ec86-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/d01922f3-7b6d-4d81-a4de-3fc2c7736945-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/a3af532d-4d28-4de0-8755-c2379cde8107-1-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/44abc949-162d-44ba-ae8f-6d0c2f34e7e3-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/6f804f85-cee7-41af-912c-b5a78ed43ddd-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/e2b00e1e-c01c-41a7-b35f-95a441498d65-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/7f46233c-24d7-4166-b808-2a15849c175a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/f20fa928-9a37-474b-b1b5-0439a298297a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/e9859851-78bf-473a-8f76-abca96a65781-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/10/83e4768f-f11d-4105-bfd5-6e281443a706-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/0ceb379a-1931-4ea8-ac1c-6d1ac434a9dc-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/258f25a3-f1ef-4610-8020-fd3812f6ede2-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/6de9432c-ccf4-4dea-9eda-489b8ce857d2-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/e03e0728-135a-4533-8849-18bf1f12c5b3-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/10/f58d01b8-e915-40f6-bbd1-86a99d0307d6-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/5e803155-1316-449c-9ff4-df092526081a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/7832dc1b-5d00-4883-9101-858caa0f3ccf-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/cdd61006-dc3f-4703-8cfd-00bb3c0329d4-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/8981dad8-532d-4d0a-901c-f0c62a39912b-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/04/27acb92b-743f-4d2d-be92-a7a1f98f07f9-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/32fc6cf1-3e0e-46f6-8332-74b64d0ba0e7-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/bfdd62b1-d635-47ac-bd5d-53a677e3772d-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/32bab9f7-3d91-46d6-a0af-75906989a04a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/8ea09a9e-14da-4309-b8a6-cb30d15952da-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/10/15c8c4c0-49bf-4bb0-b35d-2dc69fd89a21-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/10/dfdaaa5f-61f6-40c2-81fd-e8e268ad1b4e-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/7f479675-9add-4587-a413-da551e9f8663-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/b3326d8a-7fbb-4736-bf02-bf2a0e5a9362-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/05c2467f-2853-413f-9ff0-f10c9bc48927-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/10/5f2400d4-41cf-4e62-a277-94599d811eec-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/e0de7fa1-daad-4eaa-bea5-5ee75bb8fef2-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/ed8a1bf1-9b5a-46cb-835c-80def5d4783d-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/044652ac-bdcf-4768-9eb9-89d2e3814c7a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/98d231df-3813-4262-acbe-38d3754ed4e0-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/5f73202d-5533-475a-81a2-ebd029f39912-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/4bfab75e-85c3-44e6-9659-a1f7f9fbc8a8-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/b2d0b23d-cea8-42e5-ae09-ea347020248c-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/791b0cf8-9cde-44c8-aa4c-74e481614f80-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/6f62f16a-f5ba-4831-983c-ab3d7ab3a092-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/5d82dce8-932c-40b1-b453-27c6cd1d3c5e-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/5608c845-abbc-42ed-9c6e-ee75a9f60812-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/9273562d-a2a5-4ee1-b9d6-61d7d997afb7-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/bea82f4f-3d7a-481e-b79b-8d798bd8ff86-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/7db2cb5c-5d1e-4ba5-982c-364e968aeddb-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/9f588b1c-2652-465f-9e9d-ca567521b7d2-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/21863657-70a4-4596-a224-ebe3f28f5d21-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/002887c4-5330-4e56-9758-78146bc89816-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/05a25665-1187-4f35-8753-8dbe0bb175c6-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/5b1a0e5f-978e-4e58-b699-a8854b892333-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/989cd372-13b9-4e1d-b81d-6451108ca12a-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/b86ec965-8b98-4bbd-9a84-02d4fde4707f-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/0f76310a-127e-48da-958a-e662bf545aed-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/15f3ffb3-677a-45a0-9c73-cea9f8d63563-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/0f56a684-83dd-4569-8c83-c5471d3b7786-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/7727a988-bdd4-4fe6-8603-1cda224b3dec-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/48f35568-5357-4f2d-923c-00014e6c9fb7-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/abf14fd6-f011-4410-956a-4b83121c0d1d-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/1b15f8e3-6ae4-44b7-ad5c-3fa5dab7a902-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/36d309d6-5038-48f1-9b28-f37c563c6a00-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/e790626a-8342-489e-90fd-94a56e8c876e-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/12/fc6b9fdb-b357-488d-bcc2-201399583efa-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/1483b12d-3ccb-4d5f-a361-f245d150ce60-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/81967215-1471-4ae8-bcea-fda6ee247b9f-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/09d112a0-a45d-40a4-bfeb-725fe1dd1c5f-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/f657f854-0111-4b20-bafd-e416aefdde1b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/c33a7424-aaf6-4ae6-b87e-8ffdfa6e60aa-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/e4bab163-c938-4653-b34d-0e185c069bd3-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/0850d0d8-fa73-4908-a69e-40d359fd3426-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/bea0a28a-6b06-45b6-926c-31f745e2d3ff-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/12/f41064ff-64dd-4c52-816a-ca8f2531e682-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/0a791601-c476-4cfe-b320-f50d92593adb-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/3e0172f1-8f08-41db-8fda-9076f9b9ba39-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/68f0f5ae-937d-4ad9-91c1-d22372b199c0-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/6754aa72-295c-43d6-9443-20f68f146f15-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/e5b10730-2a49-4fdd-91ad-945d64b46c3b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/ab6ffbfd-773c-4eb0-a9b4-efaaa4dd49ad-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/b6a84307-9948-437e-a9ad-233ef7f39d28-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/d7b535dd-563e-4524-8277-9674e44af041-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/343d5e96-c586-4fc6-bc99-b72d5bb96a3b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/c0635bdb-fbd8-4a7f-b5b7-786d6f82129a-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/0428863c-7e76-434d-944a-74462944f423-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/18674a07-eec5-4950-b464-b785aa709cff-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/8ed24862-3a5f-41cf-bc26-dd103232a156-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/6ee3adaa-4a1d-4031-83e0-d7e4a532dd07-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/f15b14f4-c439-4d57-a437-960a612be34d-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/2d61c1cb-52bb-47d9-aae5-adb71ca9c69f-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/c989efb7-d84b-4507-8ba9-aa3ea400f3d4-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/2ec6987e-8f92-433a-9672-f1345bb3af7d-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/03/719a8c56-3a41-4c85-8313-a46db492daca-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/a90c540b-6a5d-43a2-b0a1-5bfad38d2781-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/47de9757-483a-428b-a755-da88e3a6c395-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/6ae5784f-68e6-4e77-9cbe-d718dbcc27bf-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/ec9c7289-130c-43c1-8e41-4999a816b123-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/d1ad63a3-5bef-42b8-8d99-a5115468513c-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/542d06e3-44eb-4901-be9b-b2918468d392-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/12/10175301-a15e-4b1f-83ec-7549f09bc76b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/e94d3109-43e6-4fc0-8fa0-c9b533c4205d-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/59a273d8-7c46-4244-bfd4-83691748e380-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/92dee643-8d61-45d2-9759-e36876d6921d-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/cf4757ea-2fdf-4ab4-8d6c-dec7bc8e0515-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/b254b141-cf6a-447d-a708-1126e4f5f80b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/7ef0e279-b1de-4044-b86c-0c45ff4ab3d2-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/12/e5cb04fa-446c-4b11-ac7c-7e5f7e972d21-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/03/a8ea978f-76ea-4876-9059-1e36ca3e4e17-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2024/03/8f650e99-017b-4219-9540-b5d79fae2dc8-1-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/da37f452-39af-4a68-8d4c-448b462578b2-1-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/8871d782-fc4e-42c8-845c-270434356997-1-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/f1558a8f-c18a-46c1-a641-b2cd816c0f15-1-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/05/f01b8e11-158a-43d1-9518-b08a624453ae-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/a9d405f1-ffc8-4261-9300-e72a1a809400-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/66e900ec-6065-4ade-94eb-2b0b9a60ee0a-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/05/a48e0849-e710-4e6b-b974-d04b6d9c1b4a-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/04/9772eb03-7870-4661-8978-d07df72d4c2f-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/010e499a-1e3d-4665-afe4-fcb961f70975-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/4bcdcbbd-29d8-4e61-9614-da2639d27d64-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/884954e7-4776-4638-8961-d5ff7801a1ec-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/1a0006a1-41f6-415b-8bb8-3df459fa84a3-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/04/13e58fe1-e904-4039-85c8-9ba67ab50f45-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/93031aa7-3b7d-461f-9bde-9bd4b3b86fed-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/a9190a57-75c7-4a7a-8264-d264dd6ce1f6-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/8d4ecb61-696c-4b32-897d-9ab12939cf0b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/efe665d2-9f64-49f2-ae17-27f71115d89d-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/06/426971b5-8dd2-4142-8cf3-3f1900b6d6fd-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/06/242013fa-98d0-4f79-a494-abe7f64f0ed9-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/06/d3176baa-b2c9-47cd-b97b-1a3c4bf1535c-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/06/5dd9e4fb-ec74-4317-a663-1d80b75aaa92-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/06/bce64f68-0bd1-442e-8386-8691256d7cc2-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/fe20aee6-9558-4f51-ac8c-33f96369d22e-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/eef2a2e1-4f7a-46cd-98bf-8d9bf057033b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/e64d901e-ed04-482b-b1fa-df987e27959d-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/a1f94896-6112-4993-8972-c17b21c51879-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/85f2ea92-4ab7-48d8-8df3-193bfe646406-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/c035155d-b3f2-4f97-8a16-65b39ee4e981-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/d34e8615-c2b7-40c9-b143-c6da29ec8aa5-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/7607efe6-31b6-4982-880c-27084be360d3-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/7f65ffdf-14e5-49eb-9b75-e69026e4a1ab-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/7c47a766-f34e-4a78-a0b1-c03f91eab070-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/03/8862c9d5-44b4-4d63-832d-c811c2ead934-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/a94de7ff-7b9d-401a-b027-48cdcca7fb34-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/facf82b2-d15b-46b8-ab8f-2b021b2d9619-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/31d1c7ac-6518-46ec-bd80-745df479b713-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/03/40ecdaab-6ea8-4652-8fc8-47fa5eb30a4b-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/b24d9863-81d6-47e3-9f29-b3ec6da2486c-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/1ed8fa84-839c-477a-8657-ec4758bcec36-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/7ec00324-f201-40f4-9d55-c1f41aa3f3de-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/03/1bc563ce-c50f-44d1-9196-2f2748682c43-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/e5312a6e-9586-421e-aad0-1448d585ba4d-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/b20a4752-7749-41d2-98b4-826672684d9a-1024x1024.png|https://marvelous.com.pe/wp-content/uploads/2023/08/1a04cd7f-7c5c-48fa-9bd3-53b94a9c80bd-1024x1024.png</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2024/04/404c8d1e-b6f0-4a3b-bb80-66734a2672b7-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/88f571a5-7aba-4010-83a6-879e8e942990-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2024/04/5bb05c74-1126-4c5f-b375-7871017aa1e6-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://marvelous.com.pe/wp-content/uploads/2023/08/29449695-a2f9-4a30-8bbc-9b00609339e3-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/67fca366-77a0-4a01-bc7c-c8e9e15eccb0-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/3e14509b-b863-4934-8493-b42c2fafd46f-1024x1024.jpg|https://marvelous.com.pe/wp-content/uploads/2023/08/70917df7-7693-4c5c-87f8-f5f222c73659-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>.rescuetool</t>
+  </si>
+  <si>
+    <t>.SWISSCARD</t>
+  </si>
+  <si>
+    <t>.SWISSCARDCLASSIC</t>
+  </si>
+  <si>
+    <t>.ESCORT</t>
+  </si>
+  <si>
+    <t>.MULTICLIP</t>
+  </si>
+  <si>
+    <t>.MULTICLIP2CADENAS</t>
+  </si>
+  <si>
+    <t>.VITORINOX1</t>
+  </si>
+  <si>
+    <t>.VICTORINOX2</t>
+  </si>
+  <si>
+    <t>.Classic SD Rosada</t>
+  </si>
+  <si>
+    <t>.Classic SD Rosada Translucida</t>
+  </si>
+  <si>
+    <t>.Classic SD Azul Translucida</t>
+  </si>
+  <si>
+    <t>1.3711.63</t>
+  </si>
+  <si>
+    <t>.SWISSCARD1</t>
+  </si>
+  <si>
+    <t>.cinturonvictorinox</t>
+  </si>
+  <si>
+    <t>.2303</t>
+  </si>
+  <si>
+    <t>.0.8461</t>
+  </si>
+  <si>
+    <t>.1.6795.3</t>
+  </si>
+  <si>
+    <t>.Classic SD Camouflage</t>
+  </si>
+  <si>
+    <t>.VictorinoxEstucheSwiss</t>
+  </si>
+  <si>
+    <t>.Zip-Around Wallet</t>
+  </si>
+  <si>
+    <t>.Victorinox Barcelona</t>
+  </si>
+  <si>
+    <t>.EstucheVictorinoxEstuche</t>
+  </si>
+  <si>
+    <t>.PersianIndigo</t>
+  </si>
+  <si>
+    <t>.GreenTea</t>
+  </si>
+  <si>
+    <t>.TropicalSurf</t>
+  </si>
+  <si>
+    <t>.TastyGrape</t>
+  </si>
+  <si>
+    <t>BilleteraTrifoldVITORINOX</t>
+  </si>
+  <si>
+    <t>.MochilaVictorinox-606752-Azul</t>
+  </si>
+  <si>
+    <t>Spartan Rojo Trans 1.3603.T</t>
+  </si>
+  <si>
+    <t>1.3703.T Climber Rojo Translucido</t>
+  </si>
+  <si>
+    <t>30163901</t>
+  </si>
+  <si>
+    <t>1.3703.T7 Climber Silvertech</t>
+  </si>
+  <si>
+    <t>Spartan Silvertech 1.3603.T7</t>
+  </si>
+  <si>
+    <t>Spartan Azul Trans 1.3603.T2</t>
+  </si>
+  <si>
+    <t>610603</t>
+  </si>
+  <si>
+    <t>4.0523.3</t>
+  </si>
+  <si>
+    <t>4.0521.3</t>
+  </si>
+  <si>
+    <t>611022</t>
+  </si>
+  <si>
+    <t>610601</t>
+  </si>
+  <si>
+    <t>610606</t>
+  </si>
+  <si>
+    <t>610600</t>
+  </si>
+  <si>
+    <t>4.1853</t>
+  </si>
+  <si>
+    <t>612486</t>
+  </si>
+  <si>
+    <t>.F108WH-1ACF</t>
+  </si>
+  <si>
+    <t>A168WA-1</t>
+  </si>
+  <si>
+    <t>.F201WA-1A</t>
+  </si>
+  <si>
+    <t>.MQ24-7B2</t>
+  </si>
+  <si>
+    <t>.W213-1AV</t>
+  </si>
+  <si>
+    <t>.W216H-1AV</t>
+  </si>
+  <si>
+    <t>.F91W-1</t>
+  </si>
+  <si>
+    <t>W218HC-4A2V</t>
+  </si>
+  <si>
+    <t>LQ139A-1B3</t>
+  </si>
+  <si>
+    <t>MQ-24-1B3</t>
+  </si>
+  <si>
+    <t>AIRLIFT BL</t>
+  </si>
+  <si>
+    <t>AIRLIFT VER</t>
+  </si>
+  <si>
+    <t>AIRLIFT NEG</t>
+  </si>
+  <si>
+    <t>A0195U001</t>
+  </si>
+  <si>
+    <t>A0465u Ivory</t>
+  </si>
+  <si>
+    <t>A0465u Negro</t>
+  </si>
+  <si>
+    <t>A0465u Fog</t>
+  </si>
+  <si>
+    <t>.NotYourBaby-Fucsia</t>
+  </si>
+  <si>
+    <t>PowerPuff Cap</t>
+  </si>
+  <si>
+    <t>DenimPatch</t>
+  </si>
+  <si>
+    <t>IconTruckerPink</t>
+  </si>
+  <si>
+    <t>HNHW0008</t>
+  </si>
+  <si>
+    <t>.D6657-0001</t>
+  </si>
+  <si>
+    <t>SP222 TRKR</t>
+  </si>
+  <si>
+    <t>Florida Oranges Miami Beach - Roxy</t>
+  </si>
+  <si>
+    <t>.NF0A5FXJZSF-OS - Mostaza</t>
+  </si>
+  <si>
+    <t>76J0079</t>
+  </si>
+  <si>
+    <t>Volcom Cap - Stampit Cheese</t>
+  </si>
+  <si>
+    <t>827782027007</t>
+  </si>
+  <si>
+    <t>Sculpted Zip Around</t>
+  </si>
+  <si>
+    <t>31KA220033</t>
+  </si>
+  <si>
+    <t>29ctw00003-001</t>
+  </si>
+  <si>
+    <t>Wallet-Cat</t>
+  </si>
+  <si>
+    <t>.31CP130009BilletColumbiaMarronOscuro</t>
+  </si>
+  <si>
+    <t>.31CP220019-Columbia-Black</t>
+  </si>
+  <si>
+    <t>.31cp110015BilletColumbiaTrifoldMarron</t>
+  </si>
+  <si>
+    <t>.31CP220046-Columbia-marron</t>
+  </si>
+  <si>
+    <t>.31CP130015</t>
+  </si>
+  <si>
+    <t>.31CP220Z09-MARRON</t>
+  </si>
+  <si>
+    <t>.BilletColumbiaBicolor31CP220011Negro</t>
+  </si>
+  <si>
+    <t>.31CP110033</t>
+  </si>
+  <si>
+    <t>.31CP130004</t>
+  </si>
+  <si>
+    <t>.BilletColumbiaBicolor31CP220011Marrón</t>
+  </si>
+  <si>
+    <t>Veronica WOS</t>
+  </si>
+  <si>
+    <t>.Dockers-31DP110017-Negro</t>
+  </si>
+  <si>
+    <t>.31DK110026DOCKERS-Trifold-Marrón</t>
+  </si>
+  <si>
+    <t>31DP110026</t>
+  </si>
+  <si>
+    <t>.31DP220025</t>
+  </si>
+  <si>
+    <t>.31DP220034-Dockers</t>
+  </si>
+  <si>
+    <t>.31DP220020-LCFB</t>
+  </si>
+  <si>
+    <t>.31DP220028</t>
+  </si>
+  <si>
+    <t>.BBGS12176AQBifold+Wallet</t>
+  </si>
+  <si>
+    <t>.BBGS12270AQBifold+Keychain</t>
+  </si>
+  <si>
+    <t>.FF-GS12290AQBifold-Passcase</t>
+  </si>
+  <si>
+    <t>Lufkin</t>
+  </si>
+  <si>
+    <t>.31DI110025Dickies Trifold</t>
+  </si>
+  <si>
+    <t>.31DI110027</t>
+  </si>
+  <si>
+    <t>.31DI110026</t>
+  </si>
+  <si>
+    <t>MembersOnly - Billetera</t>
+  </si>
+  <si>
+    <t>.GuessSLG-SF817451-Verde</t>
+  </si>
+  <si>
+    <t>.Rodney SLG Butter</t>
+  </si>
+  <si>
+    <t>.PR862542Luella SLG</t>
+  </si>
+  <si>
+    <t>Rodney SLG Moss</t>
+  </si>
+  <si>
+    <t>Rodney SLG Coral</t>
+  </si>
+  <si>
+    <t>Kinsley SLG FG862142</t>
+  </si>
+  <si>
+    <t>WILDERSON - White</t>
+  </si>
+  <si>
+    <t>ABREE SLG Pink Met</t>
+  </si>
+  <si>
+    <t>S8934156-Marron</t>
+  </si>
+  <si>
+    <t>Lathan-Rose Dust</t>
+  </si>
+  <si>
+    <t>BM602653</t>
+  </si>
+  <si>
+    <t>ABREE SLG SLIM CLUTCH - Amarillo</t>
+  </si>
+  <si>
+    <t>Lathan-Stone</t>
+  </si>
+  <si>
+    <t>.BGuess-31GO130037</t>
+  </si>
+  <si>
+    <t>Hoboken Verde</t>
+  </si>
+  <si>
+    <t>.9A7106-046Gris-Wallet</t>
+  </si>
+  <si>
+    <t>.13JS9BAMX-AB-Vienna DBL</t>
+  </si>
+  <si>
+    <t>.BilleteraCrossbodyJessicaSimpsonPiton</t>
+  </si>
+  <si>
+    <t>Flap Clutch - Juicy Couture</t>
+  </si>
+  <si>
+    <t>.LH9QJ5AV</t>
+  </si>
+  <si>
+    <t>.Dazzling GEoa</t>
+  </si>
+  <si>
+    <t>KI0952</t>
+  </si>
+  <si>
+    <t>KI7230</t>
+  </si>
+  <si>
+    <t>.MoneyLand - Kipling Azul</t>
+  </si>
+  <si>
+    <t>.CECE-NR-VERDE</t>
+  </si>
+  <si>
+    <t>.TOPS-ARTISINAL - Blanco y azul</t>
+  </si>
+  <si>
+    <t>.Alia-Hazy Grey</t>
+  </si>
+  <si>
+    <t>KI0952 0MD</t>
+  </si>
+  <si>
+    <t>.CECE-NR-Dazzling Geos</t>
+  </si>
+  <si>
+    <t>AC8152</t>
+  </si>
+  <si>
+    <t>KI1456 4LJ</t>
+  </si>
+  <si>
+    <t>AC3739</t>
+  </si>
+  <si>
+    <t>Eternal Tweed</t>
+  </si>
+  <si>
+    <t>KI0809</t>
+  </si>
+  <si>
+    <t>KI6791 Latin Cheetah</t>
+  </si>
+  <si>
+    <t>.31LP220078</t>
+  </si>
+  <si>
+    <t>.31LP110059-Levis-Marrón</t>
+  </si>
+  <si>
+    <t>31LP110064</t>
+  </si>
+  <si>
+    <t>31LV130053</t>
+  </si>
+  <si>
+    <t>31LV240035</t>
+  </si>
+  <si>
+    <t>.31LP220087</t>
+  </si>
+  <si>
+    <t>31LP220041 - Brown</t>
+  </si>
+  <si>
+    <t>31LP220105</t>
   </si>
 </sst>
 </file>
@@ -180,7 +924,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -557,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1A4827-8481-4A28-9482-4A98454EB8C2}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,323 +1320,1163 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>12464664</v>
+      <c r="A2" t="s">
+        <v>145</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>12464671</v>
+      <c r="A3" t="s">
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>12464805</v>
+      <c r="A4" t="s">
+        <v>147</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>12464867</v>
+      <c r="A5" t="s">
+        <v>148</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>12464868</v>
+      <c r="A6" t="s">
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>12464900</v>
+      <c r="A7" t="s">
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>12464966</v>
+      <c r="A8" t="s">
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>12464979</v>
+      <c r="A9" t="s">
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>12465044</v>
+      <c r="A10" t="s">
+        <v>153</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>12465120</v>
+      <c r="A11" t="s">
+        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12467638</v>
+      <c r="A12" t="s">
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>22460319</v>
+      <c r="A13" t="s">
+        <v>156</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>22460330</v>
+      <c r="A14" t="s">
+        <v>157</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>22460357</v>
+      <c r="A15" t="s">
+        <v>158</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>22460397</v>
+      <c r="A16" t="s">
+        <v>159</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>22465240</v>
+      <c r="A17" t="s">
+        <v>160</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>22465949</v>
+      <c r="A18" t="s">
+        <v>161</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>22467803</v>
+      <c r="A19" t="s">
+        <v>162</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>22467805</v>
+      <c r="A20" t="s">
+        <v>163</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>22469011</v>
+      <c r="A21" t="s">
+        <v>164</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>22469013</v>
+      <c r="A22" t="s">
+        <v>165</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22469014</v>
+      <c r="A23" t="s">
+        <v>166</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22469032</v>
+      <c r="A24" t="s">
+        <v>167</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>22469038</v>
+      <c r="A25" t="s">
+        <v>168</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>22469056</v>
+      <c r="A26" t="s">
+        <v>169</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>22469231</v>
+      <c r="A27" t="s">
+        <v>170</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>22469349</v>
+      <c r="A28" t="s">
+        <v>171</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>22469621</v>
+      <c r="A29" t="s">
+        <v>172</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>22469646</v>
+      <c r="A30" t="s">
+        <v>173</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>22469647</v>
+      <c r="A31" t="s">
+        <v>174</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>22469687</v>
+      <c r="A32" t="s">
+        <v>175</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>22469777</v>
+      <c r="A33" t="s">
+        <v>176</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>22469787</v>
+      <c r="A34" t="s">
+        <v>177</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>22469799</v>
+      <c r="A35" t="s">
+        <v>178</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>22469802</v>
+      <c r="A36" t="s">
+        <v>179</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>22469881</v>
+      <c r="A37" t="s">
+        <v>180</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>22469956</v>
+      <c r="A38" t="s">
+        <v>181</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>22469980</v>
+      <c r="A39" t="s">
+        <v>182</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>22469982</v>
+      <c r="A40" t="s">
+        <v>183</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>22469984</v>
+      <c r="A41" t="s">
+        <v>184</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>222</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>225</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>230</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>233</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>235</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>236</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>237</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>238</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>240</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>241</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>243</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>244</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>245</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>246</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>247</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>248</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>249</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>250</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>251</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>252</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>253</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>254</v>
+      </c>
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>255</v>
+      </c>
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>256</v>
+      </c>
+      <c r="B113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>257</v>
+      </c>
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>258</v>
+      </c>
+      <c r="B115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>259</v>
+      </c>
+      <c r="B116" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>260</v>
+      </c>
+      <c r="B117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>261</v>
+      </c>
+      <c r="B118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>262</v>
+      </c>
+      <c r="B119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>263</v>
+      </c>
+      <c r="B120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>264</v>
+      </c>
+      <c r="B121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>265</v>
+      </c>
+      <c r="B122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>266</v>
+      </c>
+      <c r="B123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>267</v>
+      </c>
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>268</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>269</v>
+      </c>
+      <c r="B126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>270</v>
+      </c>
+      <c r="B127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>271</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>272</v>
+      </c>
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>273</v>
+      </c>
+      <c r="B130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>274</v>
+      </c>
+      <c r="B131" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>275</v>
+      </c>
+      <c r="B132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>276</v>
+      </c>
+      <c r="B133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>277</v>
+      </c>
+      <c r="B134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>278</v>
+      </c>
+      <c r="B135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>279</v>
+      </c>
+      <c r="B136" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>281</v>
+      </c>
+      <c r="B138" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>282</v>
+      </c>
+      <c r="B139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>283</v>
+      </c>
+      <c r="B140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>284</v>
+      </c>
+      <c r="B141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>286</v>
+      </c>
+      <c r="B143" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>287</v>
+      </c>
+      <c r="B144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>289</v>
+      </c>
+      <c r="B146" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/excel-files/image/image-url.xlsx
+++ b/excel-files/image/image-url.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\SARAID\27-agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ECF812-1772-4068-A5FD-7AE54CC0D672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7862F709-91C2-4447-B142-007D050FE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B9850FB-3DED-4EEE-9074-541AEF78CC97}"/>
   </bookViews>
@@ -44,16 +44,16 @@
     <t>url</t>
   </si>
   <si>
-    <t>PMP20000230976</t>
-  </si>
-  <si>
-    <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3755/PMP20000230976/full_image-1.png</t>
-  </si>
-  <si>
-    <t>PMP20000332119</t>
-  </si>
-  <si>
-    <t>https://rimage.ripley.com.pe/home.ripley/Attachment/MKP/3755/PMP20000332119/full_image-1.png</t>
+    <t>118032724</t>
+  </si>
+  <si>
+    <t>https://imagedelivery.net/4fYuQyy-r8_rpBpcY7lH_A/falabellaPE/118032724_01/w=800,h=800,fit=pad</t>
+  </si>
+  <si>
+    <t>127356818</t>
+  </si>
+  <si>
+    <t>https://imagedelivery.net/4fYuQyy-r8_rpBpcY7lH_A/falabellaPE/127356818_01/w=800,h=800,fit=pad|https://imagedelivery.net/4fYuQyy-r8_rpBpcY7lH_A/falabellaPE/127356818_02/w=800,h=800,fit=pad|https://imagedelivery.net/4fYuQyy-r8_rpBpcY7lH_A/falabellaPE/127356818_03/w=800,h=800,fit=pad|https://imagedelivery.net/4fYuQyy-r8_rpBpcY7lH_A/falabellaPE/127356818_04/w=800,h=800,fit=pad</t>
   </si>
 </sst>
 </file>
@@ -451,12 +451,11 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.19921875" customWidth="1"/>
     <col min="3" max="3" width="37.19921875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/excel-files/image/image-url.xlsx
+++ b/excel-files/image/image-url.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\SARAID\27-agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\vega\2-setiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7862F709-91C2-4447-B142-007D050FE14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8B00D-4461-4B71-9B2B-1497D8069020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B9850FB-3DED-4EEE-9074-541AEF78CC97}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="702">
   <si>
     <t>SKU</t>
   </si>
@@ -44,23 +44,2111 @@
     <t>url</t>
   </si>
   <si>
-    <t>118032724</t>
-  </si>
-  <si>
-    <t>https://imagedelivery.net/4fYuQyy-r8_rpBpcY7lH_A/falabellaPE/118032724_01/w=800,h=800,fit=pad</t>
-  </si>
-  <si>
-    <t>127356818</t>
-  </si>
-  <si>
-    <t>https://imagedelivery.net/4fYuQyy-r8_rpBpcY7lH_A/falabellaPE/127356818_01/w=800,h=800,fit=pad|https://imagedelivery.net/4fYuQyy-r8_rpBpcY7lH_A/falabellaPE/127356818_02/w=800,h=800,fit=pad|https://imagedelivery.net/4fYuQyy-r8_rpBpcY7lH_A/falabellaPE/127356818_03/w=800,h=800,fit=pad|https://imagedelivery.net/4fYuQyy-r8_rpBpcY7lH_A/falabellaPE/127356818_04/w=800,h=800,fit=pad</t>
+    <t>https://i.ibb.co/MRJyqQQ/20115.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/M7mzg44/20052.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/wMVCZk1/20406.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/H4Wt7JW/20019.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/K95JQFT/20020.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/tp5SgM5/20114.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/1LC01wG/20251.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Kr1gXQn/720735.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/xSNXN60/250300.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VQbFjp8/720101.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/BnRkx31/724119.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/HtQ08bV/250323.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/c8sGG6N/720069.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/D8HZQPK/250324.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Qpc1ndw/720408.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jLWNLGr/999204.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/c6DKQ4V/720222.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/bKG9qRd/720223.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/qMPtLDW/720221.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/p4KgVVJ/250301.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/CMpMF66/720082.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jVPgVGk/720179.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/fpN1tRP/724120.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/0Gxhp6P/720115.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/xhgBJZG/720102.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/LYGy7DN/720741.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/dfNLcvb/720154.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Wn7yhwg/720150.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/dJTXDfR/250321.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/SNqNbrC/720085.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/4RDVXjC/720103.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/LrBRPFP/650326.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/F3016vs/650322.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/BKG83qc/650327.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/LkGvGB5/650324.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/5jLLZBD/650060.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/2jgDCvf/650303.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jk8N6MJ/650298.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/231g6p4/650297.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/BnTmrn2/650039.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/PGgMGfd/650034.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/QMvxyz1/650035.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/31FqPCg/650305.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/88K65dd/650306.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/6bQ9T44/650036.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/gZ0V5jq/650037.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/5KNV1Fm/210007.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/yVLK65K/210414.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/T4JDpD2/210031.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Wk8K4Zr/210037.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/1Xc25sr/210066.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jvdKmWV/210001.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/TRRjhBV/570364.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/9Tm8sGw/210030.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/hy6XZT2/570362.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/tqTC3LT/210025.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VMMJVZG/570360.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/f1KfH7r/570363.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Qr3mg3f/210033.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/JHwYSHX/294350.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/b2hT8ky/294353.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/dBpnBgt/290004.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/nQppjjq/290319.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/CQxQ21c/290418.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/V35qyw4/290421.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/YDNPVBJ/290124.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/tZ7bxq8/290419.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/HDC521c/290323.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jT5BcSk/290420.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/hMT5d1r/294305.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/kX3X0Rw/290351.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/vJc39s6/290350.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Wxq13yZ/290424.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VBtDGW5/294352.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/S3cDtNf/290133.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/9TYMrmm/294351.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/4Kqw4ZS/290376.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/TWptpwX/610079.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/wL7T44N/290404.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/BPyXfv0/570349.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jVk5b57/570017.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/vPvxGFb/570350.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VC1Fm19/570347.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/w0QWX8x/573531.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/4gD2MY1/250103.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Sf689sj/250608.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/JsVkXzq/254514.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/SdmDGV5/250657.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/gMwR6th/250079.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/WsCbHbx/250189.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/28pQxDC/250312.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/dgP2GdP/250806.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/JKZRTh4/250651.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/3MJWRJc/250096.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/48H22Cq/250654.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/ScPkgcc/720023.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/XFgsXP5/720032.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/PgsjS66/720036.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/fqpb58T/720030.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/X8jcqwH/720034.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/6YM1FTF/720033.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/2vKRh0M/720037.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/HGZ7Psq/720185.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/hHNgMDp/790138.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/nDmskKG/720049.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/0jSR2Xn/720210.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/vHqxD3y/720048.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VMNDrCR/720183.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/TPMN1mR/720050.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/5x7K3hX/720733.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/BjjrnF0/720320.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jDKPNjy/720734.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/ctZrHds/720350.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/cc7V14V/720076.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/KFqh6KY/724181.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/2j1wzpF/250322.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/zxsnzY0/720167.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VDsjJyJ/720214.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/brBzh4b/720093.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/gjPZRgw/720555.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/M1GD8Zq/720241.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/DbzY9DB/720080.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/kmG3MJg/720307.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/qyhyCkP/720094.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/pv1HWZr/720217.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/J2dkJkB/720639.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Bckf1r6/724296.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/hR73jPW/720058.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/yWYsjgK/720022.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VNJS8Bs/720308.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Sf3WvjP/720321.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/gmLN7pp/720077.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/34BwS5z/720622.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/J3BRXQp/720067.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/GHg3Z1t/720079.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/8bT0B4b/720051.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/9s3czmD/720001.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/y6tSZ2r/360041.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/ss5d4bb/360042.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/88kGcqH/360172.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/qmdDkK3/360104.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jH8QT8X/360542.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/7NhF0Sz/360528.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/4MPTkxV/460048.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/HFM52HQ/230023.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/X4fBrYL/230095.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/HD450Jn/230533.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/0qVMVbJ/230526.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/W33x0R0/230226.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/DWLzffP/230546.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/hHdKpN5/230223.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/fqf94gc/230050.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/NYtvxjP/230539.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/SJ1qRJt/230101.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/mF6HQ6H/230097.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jJhmJzB/230309.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/txz506V/290357.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/ZgzNXtJ/290356.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/4t8tqS5/290358.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/8PyRWGG/141296.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/25YR0JZ/141293.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/0n40bn6/290186.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/QNpfvQc/141294.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Wn9sFpk/141295.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Xj7MYgK/290185.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/1mFwgpF/290149.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VtwdbJR/141292.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/9wqLfz4/410580.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VqGGLkW/411820.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/vzW1qHm/411810.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/kSgFV6f/410221.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/S758ySn/410180.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/dkk2vYZ/410213.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/4J7bpLK/410212.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/7knGgBR/411809.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/xsftz93/415183.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/8Y4Ktnf/410271.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/G9TP81d/411817.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Y3kvxgK/410587.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/khXT9sn/410561.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jHtFvVP/410633.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/qMRQw8M/410635.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/7GBb8Gw/410563.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/kmkm6YQ/580101.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/892168W/10105.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jz7qdYB/500367.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jTtjGSq/10565.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/MBDnbMq/10567.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/d688P7K/10114.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/RCtKcqX/370046.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/KVZzkJv/310336.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/RPJ3rLh/422135.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/mSg4L1d/422039.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/zR1jGvQ/422041.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/8DcqjX7/422564.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/TR6pzSP/420075.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/zhrCXx8/420003.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/PcqR9VM/190823.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/4gys72W/190096.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/FH26WhV/199068.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/7bVwsKC/190095.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/p0sNYCT/190093.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/bvhZT3f/190094.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/2PntwBs/190092.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/9v37hHY/199067.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/9vC0M2L/190109.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/m44YkK9/190830.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/FnYw6fK/190829.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/tQRxpCy/190108.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/NVxpt3b/190470.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/yRqMqgT/190177.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/3MsmcHf/190153.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Lhm7XQk/190466.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/kxP06Dw/600039.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/kX0Qhnk/600040.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/W39nmfB/200027.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/c3RG2dq/200055.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/tcR2x1L/200031.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VgtWLQr/580043.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/nrYd0xr/580044.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/3MGZ2Ny/580047.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Fg21gNC/580042.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/f8G9F8W/480055.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/syDG8r4/480050.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/t3LXczC/480051.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/zXRTcxc/480052.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Q8CgR9q/170086.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/ccgSCxw/70198.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Br4QyVc/70066.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/ZJRvQSq/170368.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/K22SYZs/170370.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/vLKVXhk/70002.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/55nHKKZ/170375.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/XzT3K6c/70051.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/x3hxcY3/70144.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/88bdr1p/70074.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/j6vRtG2/170095.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VQwMP7R/70606.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/p46W8yJ/70045.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/bL1nf5f/70095.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Vg7hqRB/430015.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/SJ4WpCW/10592.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/fnpdKMF/10593.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/2hQF2SZ/10181.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/kg0fdhy/10047.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/d42yVwY/10046.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Lx0V7bk/11055.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Db4BPJh/11054.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/2njJkmy/11053.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/LpTn3mc/10507.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/SRzThkb/010057.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/K7rhkt6/010058.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/RgByVd5/10045.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/1TnCFL8/10031.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/dsvwk2f/10252.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Q6j6dCY/010061.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/kqXj9Bz/10034.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/8YcYKjR/10035.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/b3dX3rg/10053.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/RQCM830/10052.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/3f7ZZtJ/10185.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/7zTHyrp/10184.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/3SQh731/10186.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/chcD9Ft/10253.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/NmWCXZ4/10343.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/hWKSc9b/10510.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/TYzxbRx/10345.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/K6q1GCS/700688.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/fxkh5c8/700652.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/bJcncSd/700331.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/1qCHY3Z/701173.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/gry59MP/700709.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/285n12P/720020.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/xLn4bLf/700680.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/GCcT04N/701172.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/58477x6/720097.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/5cMFsjx/700411.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Sy1tLCw/720098.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/LRFQxFg/700410.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/YWxmKGM/701175.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/QCFV9gS/720096.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/RvzDQM6/700332.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/CQLTHbC/700671.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/V3dB4GX/411470.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jz5s6zR/411469.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/ts3G1CY/720025.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/CzNnKTx/720081.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/RSwV0hr/730030.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/zPQq7Ry/720031.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/BBFfG00/162003.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/ZTgrvpb/162002.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/MB4fttX/320062.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/mvsKX7w/320026.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/PMTNnv6/320030.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/NsZh1wW/320230.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Qc0NrTk/320237.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Qp6my2J/320238.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/MgN25rf/320226.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/99G9vt9/320232.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/svk5f4w/320222.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/BPxhkkk/320227.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/p1MknZx/320229.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/3pSTYfq/320228.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/GkrMCLx/320231.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/F8rnqBL/320274.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/y54DLMW/161003.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/3RQPzf1/320538.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/9bGZsBj/320539.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/1Gz6Khr/320537.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/xmWXVkm/320530.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/YtsTQ72/320528.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/ZKwR81m/320548.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/93GbcDq/320549.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/MGGRrKR/320551.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/txbp1d7/320555.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/wMsHT76/320547.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/2qpfJMj/320550.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/wBmXqTW/320524.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/SxS0dgC/320552.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/1MX29V2/320431.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/5BH2v8S/320433.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/fd35PDv/320432.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/rs2Z1dt/320434.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/fv3cQCx/320435.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/d4TPv3c/320427.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/rf6Ktwh/320542.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/TLxp0g0/322573.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/qmpPnHs/320272.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/GpZr3yW/320271.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/dQbSR53/320553.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/HG6Zw99/320506.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/mb2rnQV/320508.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/nQmV2yV/320540.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/ww3BvNq/320546.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/mFdfD59/320543.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Z2WhtRt/320429.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/F5jYrP5/320428.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/561cnBk/320523.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/XfB55Wk/320436.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/RTRJCtC/141132.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/wpS8hfm/141596.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/j3qcZcW/130672.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/S5x067v/149657.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/G53qvX3/141597.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Y8N7fbq/149642.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/9YZ0QWr/141677.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/qgrfYWF/130420.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/G0hW1b2/130383.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Yft3D0h/141337.webp</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/zfjVLSz/141336.webp</t>
+  </si>
+  <si>
+    <t>020115-Un-1</t>
+  </si>
+  <si>
+    <t>020052-Un-1</t>
+  </si>
+  <si>
+    <t>020406-Un-1</t>
+  </si>
+  <si>
+    <t>020019-Un-1</t>
+  </si>
+  <si>
+    <t>020020-Un-1</t>
+  </si>
+  <si>
+    <t>020114-Un-1</t>
+  </si>
+  <si>
+    <t>020251-Un-1</t>
+  </si>
+  <si>
+    <t>720735-Un-1</t>
+  </si>
+  <si>
+    <t>250300-Un-1</t>
+  </si>
+  <si>
+    <t>720101-Un-1</t>
+  </si>
+  <si>
+    <t>724119-Un-1</t>
+  </si>
+  <si>
+    <t>250323-Un-1</t>
+  </si>
+  <si>
+    <t>720069-Un-1</t>
+  </si>
+  <si>
+    <t>250324-Un-1</t>
+  </si>
+  <si>
+    <t>720408-Un-1</t>
+  </si>
+  <si>
+    <t>999204-Un-1</t>
+  </si>
+  <si>
+    <t>720222-Un-1</t>
+  </si>
+  <si>
+    <t>720223-Un-1</t>
+  </si>
+  <si>
+    <t>720221-Un-1</t>
+  </si>
+  <si>
+    <t>250301-Un-1</t>
+  </si>
+  <si>
+    <t>720082-Un-1</t>
+  </si>
+  <si>
+    <t>720179-Un-1</t>
+  </si>
+  <si>
+    <t>724120-Un-1</t>
+  </si>
+  <si>
+    <t>720115-Un-1</t>
+  </si>
+  <si>
+    <t>720102-Un-1</t>
+  </si>
+  <si>
+    <t>720741-Un-1</t>
+  </si>
+  <si>
+    <t>720154-Un-1</t>
+  </si>
+  <si>
+    <t>720150-Un-1</t>
+  </si>
+  <si>
+    <t>250321-Un-1</t>
+  </si>
+  <si>
+    <t>720085-Un-1</t>
+  </si>
+  <si>
+    <t>720103-Un-1</t>
+  </si>
+  <si>
+    <t>650326-Un-1</t>
+  </si>
+  <si>
+    <t>650322-Un-1</t>
+  </si>
+  <si>
+    <t>650327-Un-1</t>
+  </si>
+  <si>
+    <t>650324-Un-1</t>
+  </si>
+  <si>
+    <t>650060-Un-1</t>
+  </si>
+  <si>
+    <t>650303-Un-1</t>
+  </si>
+  <si>
+    <t>650298-Un-1</t>
+  </si>
+  <si>
+    <t>650297-Un-1</t>
+  </si>
+  <si>
+    <t>650039-Un-1</t>
+  </si>
+  <si>
+    <t>650034-Un-1</t>
+  </si>
+  <si>
+    <t>650035-Un-1</t>
+  </si>
+  <si>
+    <t>650305-Un-1</t>
+  </si>
+  <si>
+    <t>650306-Un-1</t>
+  </si>
+  <si>
+    <t>650036-Un-1</t>
+  </si>
+  <si>
+    <t>650037-Un-1</t>
+  </si>
+  <si>
+    <t>210007-Un-1</t>
+  </si>
+  <si>
+    <t>210414-Un-1</t>
+  </si>
+  <si>
+    <t>210031-Un-1</t>
+  </si>
+  <si>
+    <t>210037-Un-1</t>
+  </si>
+  <si>
+    <t>210066-Un-1</t>
+  </si>
+  <si>
+    <t>210001-Un-1</t>
+  </si>
+  <si>
+    <t>570364-Un-1</t>
+  </si>
+  <si>
+    <t>210030-Un-1</t>
+  </si>
+  <si>
+    <t>570362-Un-1</t>
+  </si>
+  <si>
+    <t>210025-Un-1</t>
+  </si>
+  <si>
+    <t>570360-Un-1</t>
+  </si>
+  <si>
+    <t>570363-Un-1</t>
+  </si>
+  <si>
+    <t>210033-Un-1</t>
+  </si>
+  <si>
+    <t>294350-Un-1</t>
+  </si>
+  <si>
+    <t>294353-Un-1</t>
+  </si>
+  <si>
+    <t>290004-Un-1</t>
+  </si>
+  <si>
+    <t>290319-Un-1</t>
+  </si>
+  <si>
+    <t>290418-Un-1</t>
+  </si>
+  <si>
+    <t>290421-Un-1</t>
+  </si>
+  <si>
+    <t>290124-Un-1</t>
+  </si>
+  <si>
+    <t>290419-Un-1</t>
+  </si>
+  <si>
+    <t>290323-Un-1</t>
+  </si>
+  <si>
+    <t>290420-Un-1</t>
+  </si>
+  <si>
+    <t>294305-Un-1</t>
+  </si>
+  <si>
+    <t>290351-Un-1</t>
+  </si>
+  <si>
+    <t>290350-Un-1</t>
+  </si>
+  <si>
+    <t>290424-Un-1</t>
+  </si>
+  <si>
+    <t>294352-Un-1</t>
+  </si>
+  <si>
+    <t>290133-Un-1</t>
+  </si>
+  <si>
+    <t>294351-Un-1</t>
+  </si>
+  <si>
+    <t>290376-Un-1</t>
+  </si>
+  <si>
+    <t>610079-Un-1</t>
+  </si>
+  <si>
+    <t>290404-Un-1</t>
+  </si>
+  <si>
+    <t>570349-Un-1</t>
+  </si>
+  <si>
+    <t>570017-Un-1</t>
+  </si>
+  <si>
+    <t>570350-Un-1</t>
+  </si>
+  <si>
+    <t>570347-Un-1</t>
+  </si>
+  <si>
+    <t>573531-Un-1</t>
+  </si>
+  <si>
+    <t>250103-Un-1</t>
+  </si>
+  <si>
+    <t>250608-Un-1</t>
+  </si>
+  <si>
+    <t>254514-Un-1</t>
+  </si>
+  <si>
+    <t>250657-Un-1</t>
+  </si>
+  <si>
+    <t>250079-Un-1</t>
+  </si>
+  <si>
+    <t>250189-Un-1</t>
+  </si>
+  <si>
+    <t>250312-Un-1</t>
+  </si>
+  <si>
+    <t>250806-Un-1</t>
+  </si>
+  <si>
+    <t>250651-Un-1</t>
+  </si>
+  <si>
+    <t>250096-Un-1</t>
+  </si>
+  <si>
+    <t>250654-Un-1</t>
+  </si>
+  <si>
+    <t>720023-Un-1</t>
+  </si>
+  <si>
+    <t>720032-Un-1</t>
+  </si>
+  <si>
+    <t>720036-Un-1</t>
+  </si>
+  <si>
+    <t>720030-Un-1</t>
+  </si>
+  <si>
+    <t>720034-Un-1</t>
+  </si>
+  <si>
+    <t>720033-Un-1</t>
+  </si>
+  <si>
+    <t>720037-Un-1</t>
+  </si>
+  <si>
+    <t>720185-Un-1</t>
+  </si>
+  <si>
+    <t>790138-Un-1</t>
+  </si>
+  <si>
+    <t>720049-Un-1</t>
+  </si>
+  <si>
+    <t>720210-Un-1</t>
+  </si>
+  <si>
+    <t>720048-Un-1</t>
+  </si>
+  <si>
+    <t>720183-Un-1</t>
+  </si>
+  <si>
+    <t>720050-Un-1</t>
+  </si>
+  <si>
+    <t>720733-Un-1</t>
+  </si>
+  <si>
+    <t>720320-Un-1</t>
+  </si>
+  <si>
+    <t>720734-Un-1</t>
+  </si>
+  <si>
+    <t>720350-Un-1</t>
+  </si>
+  <si>
+    <t>720076-Un-1</t>
+  </si>
+  <si>
+    <t>724181-Un-1</t>
+  </si>
+  <si>
+    <t>250322-Un-1</t>
+  </si>
+  <si>
+    <t>720167-Un-1</t>
+  </si>
+  <si>
+    <t>720214-Un-1</t>
+  </si>
+  <si>
+    <t>720093-Un-1</t>
+  </si>
+  <si>
+    <t>720555-Un-1</t>
+  </si>
+  <si>
+    <t>720241-Un-1</t>
+  </si>
+  <si>
+    <t>720080-Un-1</t>
+  </si>
+  <si>
+    <t>720307-Un-1</t>
+  </si>
+  <si>
+    <t>720094-Un-1</t>
+  </si>
+  <si>
+    <t>720217-Un-1</t>
+  </si>
+  <si>
+    <t>720639-Un-1</t>
+  </si>
+  <si>
+    <t>724296-Un-1</t>
+  </si>
+  <si>
+    <t>720058-Un-1</t>
+  </si>
+  <si>
+    <t>720022-Un-1</t>
+  </si>
+  <si>
+    <t>720308-Un-1</t>
+  </si>
+  <si>
+    <t>720321-Un-1</t>
+  </si>
+  <si>
+    <t>720077-Un-1</t>
+  </si>
+  <si>
+    <t>720622-Un-1</t>
+  </si>
+  <si>
+    <t>720067-Un-1</t>
+  </si>
+  <si>
+    <t>720079-Un-1</t>
+  </si>
+  <si>
+    <t>720051-Un-1</t>
+  </si>
+  <si>
+    <t>720001-Un-1</t>
+  </si>
+  <si>
+    <t>360041-Un-1</t>
+  </si>
+  <si>
+    <t>360042-Un-1</t>
+  </si>
+  <si>
+    <t>360172-Un-1</t>
+  </si>
+  <si>
+    <t>360104-Un-1</t>
+  </si>
+  <si>
+    <t>360542-Un-1</t>
+  </si>
+  <si>
+    <t>360528-Un-1</t>
+  </si>
+  <si>
+    <t>460048-Un-1</t>
+  </si>
+  <si>
+    <t>230023-Un-1</t>
+  </si>
+  <si>
+    <t>230095-Un-1</t>
+  </si>
+  <si>
+    <t>230533-Un-1</t>
+  </si>
+  <si>
+    <t>230526-Un-1</t>
+  </si>
+  <si>
+    <t>230226-Un-1</t>
+  </si>
+  <si>
+    <t>230546-Un-1</t>
+  </si>
+  <si>
+    <t>230223-Un-1</t>
+  </si>
+  <si>
+    <t>230050-Un-1</t>
+  </si>
+  <si>
+    <t>230539-Un-1</t>
+  </si>
+  <si>
+    <t>230101-Un-1</t>
+  </si>
+  <si>
+    <t>230097-Un-1</t>
+  </si>
+  <si>
+    <t>230309-Un-1</t>
+  </si>
+  <si>
+    <t>290357-Un-1</t>
+  </si>
+  <si>
+    <t>290356-Un-1</t>
+  </si>
+  <si>
+    <t>290358-Un-1</t>
+  </si>
+  <si>
+    <t>141296-Un-1</t>
+  </si>
+  <si>
+    <t>141293-Un-1</t>
+  </si>
+  <si>
+    <t>290186-Un-1</t>
+  </si>
+  <si>
+    <t>141294-Un-1</t>
+  </si>
+  <si>
+    <t>141295-Un-1</t>
+  </si>
+  <si>
+    <t>290185-Un-1</t>
+  </si>
+  <si>
+    <t>290149-Un-1</t>
+  </si>
+  <si>
+    <t>141292-Un-1</t>
+  </si>
+  <si>
+    <t>410580-Si-1</t>
+  </si>
+  <si>
+    <t>411820-Si-1</t>
+  </si>
+  <si>
+    <t>411810-Si-6</t>
+  </si>
+  <si>
+    <t>410221-Si-1</t>
+  </si>
+  <si>
+    <t>410180-Si-1</t>
+  </si>
+  <si>
+    <t>410213-Si-1</t>
+  </si>
+  <si>
+    <t>410212-Si-1</t>
+  </si>
+  <si>
+    <t>411809-Si-1</t>
+  </si>
+  <si>
+    <t>415183-Si-6</t>
+  </si>
+  <si>
+    <t>410271-Si-6</t>
+  </si>
+  <si>
+    <t>411817-Si-6</t>
+  </si>
+  <si>
+    <t>410587-Si-6</t>
+  </si>
+  <si>
+    <t>410561-Pa-12</t>
+  </si>
+  <si>
+    <t>410633-Pa-12</t>
+  </si>
+  <si>
+    <t>410635-Pa-12</t>
+  </si>
+  <si>
+    <t>410563-Pa-12</t>
+  </si>
+  <si>
+    <t>580101-Un-1</t>
+  </si>
+  <si>
+    <t>010105-Un-1</t>
+  </si>
+  <si>
+    <t>500367-Un-1</t>
+  </si>
+  <si>
+    <t>010565-Un-1</t>
+  </si>
+  <si>
+    <t>010567-Un-1</t>
+  </si>
+  <si>
+    <t>010114-Un-1</t>
+  </si>
+  <si>
+    <t>370046-Un-1</t>
+  </si>
+  <si>
+    <t>310336-Un-1</t>
+  </si>
+  <si>
+    <t>422135-Un-1</t>
+  </si>
+  <si>
+    <t>422039-Un-1</t>
+  </si>
+  <si>
+    <t>422041-Un-1</t>
+  </si>
+  <si>
+    <t>422564-Un-1</t>
+  </si>
+  <si>
+    <t>420075-Un-1</t>
+  </si>
+  <si>
+    <t>420003-Un-1</t>
+  </si>
+  <si>
+    <t>190823-Un-1</t>
+  </si>
+  <si>
+    <t>190096-Un-1</t>
+  </si>
+  <si>
+    <t>199068-Un-1</t>
+  </si>
+  <si>
+    <t>190095-Un-1</t>
+  </si>
+  <si>
+    <t>190093-Un-1</t>
+  </si>
+  <si>
+    <t>190094-Un-1</t>
+  </si>
+  <si>
+    <t>190092-Un-1</t>
+  </si>
+  <si>
+    <t>199067-Un-1</t>
+  </si>
+  <si>
+    <t>190109-Un-1</t>
+  </si>
+  <si>
+    <t>190830-Un-1</t>
+  </si>
+  <si>
+    <t>190829-Un-1</t>
+  </si>
+  <si>
+    <t>190108-Un-1</t>
+  </si>
+  <si>
+    <t>190470-Un-1</t>
+  </si>
+  <si>
+    <t>190177-Un-1</t>
+  </si>
+  <si>
+    <t>190153-Un-1</t>
+  </si>
+  <si>
+    <t>190466-Un-1</t>
+  </si>
+  <si>
+    <t>600039-Un-1</t>
+  </si>
+  <si>
+    <t>600040-Un-1</t>
+  </si>
+  <si>
+    <t>200027-Un-1</t>
+  </si>
+  <si>
+    <t>200055-Un-1</t>
+  </si>
+  <si>
+    <t>200031-Un-1</t>
+  </si>
+  <si>
+    <t>580043-Un-1</t>
+  </si>
+  <si>
+    <t>580044-Un-1</t>
+  </si>
+  <si>
+    <t>580047-Un-1</t>
+  </si>
+  <si>
+    <t>580042-Un-1</t>
+  </si>
+  <si>
+    <t>480055-Un-1</t>
+  </si>
+  <si>
+    <t>480050-Un-1</t>
+  </si>
+  <si>
+    <t>480051-Un-1</t>
+  </si>
+  <si>
+    <t>480052-Un-1</t>
+  </si>
+  <si>
+    <t>170086-Un-1</t>
+  </si>
+  <si>
+    <t>070198-Un-1</t>
+  </si>
+  <si>
+    <t>070066-Un-1</t>
+  </si>
+  <si>
+    <t>170368-Un-1</t>
+  </si>
+  <si>
+    <t>170370-Un-1</t>
+  </si>
+  <si>
+    <t>070002-Un-1</t>
+  </si>
+  <si>
+    <t>170375-Un-1</t>
+  </si>
+  <si>
+    <t>070051-Un-1</t>
+  </si>
+  <si>
+    <t>070144-Un-1</t>
+  </si>
+  <si>
+    <t>070074-Un-1</t>
+  </si>
+  <si>
+    <t>170095-Pa-1</t>
+  </si>
+  <si>
+    <t>070606-Un-1</t>
+  </si>
+  <si>
+    <t>070045-Un-1</t>
+  </si>
+  <si>
+    <t>070095-Tr-1</t>
+  </si>
+  <si>
+    <t>430015-Un-1</t>
+  </si>
+  <si>
+    <t>010592-Un-1</t>
+  </si>
+  <si>
+    <t>010593-Un-1</t>
+  </si>
+  <si>
+    <t>010181-Un-1</t>
+  </si>
+  <si>
+    <t>010047-Un-1</t>
+  </si>
+  <si>
+    <t>010046-Un-1</t>
+  </si>
+  <si>
+    <t>011055-Un-1</t>
+  </si>
+  <si>
+    <t>011054-Un-1</t>
+  </si>
+  <si>
+    <t>011053-Un-1</t>
+  </si>
+  <si>
+    <t>010507-Un-1</t>
+  </si>
+  <si>
+    <t>010057-Un-1</t>
+  </si>
+  <si>
+    <t>010058-Un-1</t>
+  </si>
+  <si>
+    <t>010045-Un-1</t>
+  </si>
+  <si>
+    <t>010031-Un-1</t>
+  </si>
+  <si>
+    <t>010252-Un-1</t>
+  </si>
+  <si>
+    <t>010061-Un-1</t>
+  </si>
+  <si>
+    <t>010034-Un-1</t>
+  </si>
+  <si>
+    <t>010035-Un-1</t>
+  </si>
+  <si>
+    <t>010053-Un-1</t>
+  </si>
+  <si>
+    <t>010052-Un-1</t>
+  </si>
+  <si>
+    <t>010185-Un-1</t>
+  </si>
+  <si>
+    <t>010184-Un-1</t>
+  </si>
+  <si>
+    <t>010186-Un-1</t>
+  </si>
+  <si>
+    <t>010253-Un-1</t>
+  </si>
+  <si>
+    <t>010343-Un-1</t>
+  </si>
+  <si>
+    <t>010510-Un-1</t>
+  </si>
+  <si>
+    <t>010345-Un-1</t>
+  </si>
+  <si>
+    <t>700688-Un-1</t>
+  </si>
+  <si>
+    <t>700652-Un-1</t>
+  </si>
+  <si>
+    <t>700331-Un-1</t>
+  </si>
+  <si>
+    <t>701173-Un-1</t>
+  </si>
+  <si>
+    <t>700709-Un-1</t>
+  </si>
+  <si>
+    <t>720020-Un-1</t>
+  </si>
+  <si>
+    <t>700680-Un-1</t>
+  </si>
+  <si>
+    <t>701172-Un-1</t>
+  </si>
+  <si>
+    <t>720097-Un-1</t>
+  </si>
+  <si>
+    <t>700411-Un-1</t>
+  </si>
+  <si>
+    <t>720098-Un-1</t>
+  </si>
+  <si>
+    <t>700410-Un-1</t>
+  </si>
+  <si>
+    <t>701175-Un-1</t>
+  </si>
+  <si>
+    <t>720096-Un-1</t>
+  </si>
+  <si>
+    <t>700332-Un-1</t>
+  </si>
+  <si>
+    <t>700671-Un-1</t>
+  </si>
+  <si>
+    <t>411470-Un-1</t>
+  </si>
+  <si>
+    <t>411469-Un-1</t>
+  </si>
+  <si>
+    <t>720025-Un-1</t>
+  </si>
+  <si>
+    <t>720081-Un-1</t>
+  </si>
+  <si>
+    <t>730030-Un-1</t>
+  </si>
+  <si>
+    <t>720031-Un-1</t>
+  </si>
+  <si>
+    <t>162003-Un-1</t>
+  </si>
+  <si>
+    <t>162002-Un-1</t>
+  </si>
+  <si>
+    <t>320062-Un-1</t>
+  </si>
+  <si>
+    <t>320026-Un-1</t>
+  </si>
+  <si>
+    <t>320030-Un-1</t>
+  </si>
+  <si>
+    <t>320230-Un-1</t>
+  </si>
+  <si>
+    <t>320237-Un-1</t>
+  </si>
+  <si>
+    <t>320238-Un-1</t>
+  </si>
+  <si>
+    <t>320226-Un-1</t>
+  </si>
+  <si>
+    <t>320232-Un-1</t>
+  </si>
+  <si>
+    <t>320222-Un-1</t>
+  </si>
+  <si>
+    <t>320227-Un-1</t>
+  </si>
+  <si>
+    <t>320229-Un-1</t>
+  </si>
+  <si>
+    <t>320228-Un-1</t>
+  </si>
+  <si>
+    <t>320231-Un-1</t>
+  </si>
+  <si>
+    <t>320274-Un-1</t>
+  </si>
+  <si>
+    <t>161003-Un-1</t>
+  </si>
+  <si>
+    <t>320538-Un-1</t>
+  </si>
+  <si>
+    <t>320539-Un-1</t>
+  </si>
+  <si>
+    <t>320537-Un-1</t>
+  </si>
+  <si>
+    <t>320530-Un-1</t>
+  </si>
+  <si>
+    <t>320528-Un-1</t>
+  </si>
+  <si>
+    <t>320548-Un-1</t>
+  </si>
+  <si>
+    <t>320549-Un-1</t>
+  </si>
+  <si>
+    <t>320551-Un-1</t>
+  </si>
+  <si>
+    <t>320555-Un-1</t>
+  </si>
+  <si>
+    <t>320547-Un-1</t>
+  </si>
+  <si>
+    <t>320550-Un-1</t>
+  </si>
+  <si>
+    <t>320524-Un-1</t>
+  </si>
+  <si>
+    <t>320552-Un-1</t>
+  </si>
+  <si>
+    <t>320431-Un-1</t>
+  </si>
+  <si>
+    <t>320433-Un-1</t>
+  </si>
+  <si>
+    <t>320432-Un-1</t>
+  </si>
+  <si>
+    <t>320434-Un-1</t>
+  </si>
+  <si>
+    <t>320435-Un-1</t>
+  </si>
+  <si>
+    <t>320427-Un-1</t>
+  </si>
+  <si>
+    <t>320542-Un-1</t>
+  </si>
+  <si>
+    <t>322573-Un-1</t>
+  </si>
+  <si>
+    <t>320272-Un-1</t>
+  </si>
+  <si>
+    <t>320271-Un-1</t>
+  </si>
+  <si>
+    <t>320553-Un-1</t>
+  </si>
+  <si>
+    <t>320506-Un-1</t>
+  </si>
+  <si>
+    <t>320508-Un-1</t>
+  </si>
+  <si>
+    <t>320540-Un-1</t>
+  </si>
+  <si>
+    <t>320546-Un-1</t>
+  </si>
+  <si>
+    <t>320543-Un-1</t>
+  </si>
+  <si>
+    <t>320429-Un-1</t>
+  </si>
+  <si>
+    <t>320428-Un-1</t>
+  </si>
+  <si>
+    <t>320523-Un-1</t>
+  </si>
+  <si>
+    <t>320436-Un-1</t>
+  </si>
+  <si>
+    <t>141132-Un-1</t>
+  </si>
+  <si>
+    <t>141596-Un-1</t>
+  </si>
+  <si>
+    <t>130672-Un-1</t>
+  </si>
+  <si>
+    <t>149657-Un-1</t>
+  </si>
+  <si>
+    <t>141597-Un-1</t>
+  </si>
+  <si>
+    <t>149642-Un-1</t>
+  </si>
+  <si>
+    <t>141677-Un-1</t>
+  </si>
+  <si>
+    <t>130420-Un-1</t>
+  </si>
+  <si>
+    <t>130383-Un-1</t>
+  </si>
+  <si>
+    <t>141337-Un-1</t>
+  </si>
+  <si>
+    <t>141336-Un-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +2160,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -448,18 +2537,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1A4827-8481-4A28-9482-4A98454EB8C2}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B31" sqref="B31:B351"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="37.19921875" customWidth="1"/>
+    <col min="3" max="3" width="37.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,20 +2556,2804 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>369</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>370</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>372</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>373</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>380</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>381</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>382</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>383</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>384</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>385</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>386</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>387</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>388</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>389</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>390</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>391</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>392</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>393</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>394</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>395</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>396</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>397</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>398</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>399</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>400</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>401</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>402</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>403</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>404</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>405</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>406</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>407</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>408</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>409</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>410</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>411</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>412</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>413</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>414</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>415</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>416</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>417</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>418</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>419</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>420</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>421</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>422</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>423</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>424</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>425</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>426</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>427</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>428</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>429</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>430</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>431</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>432</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>433</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>434</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>435</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>436</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>437</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>438</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>439</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>440</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>441</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>442</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>443</v>
+      </c>
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>444</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>445</v>
+      </c>
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>446</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>447</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>448</v>
+      </c>
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>449</v>
+      </c>
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>450</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>451</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>452</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>453</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>454</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>455</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>456</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>457</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>458</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>459</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>460</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>461</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>462</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>463</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>464</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>465</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>466</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>467</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>468</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>469</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>471</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>472</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>473</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>474</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>475</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>476</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>477</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>478</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>479</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>480</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>481</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>482</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>483</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>484</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>485</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>486</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>487</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>488</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>489</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>490</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>491</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>492</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>493</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>494</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>495</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>496</v>
+      </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>497</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>498</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>499</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>500</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>501</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>502</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>503</v>
+      </c>
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>504</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>505</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>506</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>507</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>508</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>509</v>
+      </c>
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>510</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>511</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>512</v>
+      </c>
+      <c r="B162" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>513</v>
+      </c>
+      <c r="B163" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>514</v>
+      </c>
+      <c r="B164" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>515</v>
+      </c>
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>516</v>
+      </c>
+      <c r="B166" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>517</v>
+      </c>
+      <c r="B167" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>518</v>
+      </c>
+      <c r="B168" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>519</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>520</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>521</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>522</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>523</v>
+      </c>
+      <c r="B173" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>524</v>
+      </c>
+      <c r="B174" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>525</v>
+      </c>
+      <c r="B175" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>526</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>527</v>
+      </c>
+      <c r="B177" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>528</v>
+      </c>
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>529</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>530</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>531</v>
+      </c>
+      <c r="B181" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>532</v>
+      </c>
+      <c r="B182" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>533</v>
+      </c>
+      <c r="B183" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>534</v>
+      </c>
+      <c r="B184" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>535</v>
+      </c>
+      <c r="B185" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>536</v>
+      </c>
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>537</v>
+      </c>
+      <c r="B187" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>538</v>
+      </c>
+      <c r="B188" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>539</v>
+      </c>
+      <c r="B189" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>540</v>
+      </c>
+      <c r="B190" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>541</v>
+      </c>
+      <c r="B191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>542</v>
+      </c>
+      <c r="B192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>543</v>
+      </c>
+      <c r="B193" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>544</v>
+      </c>
+      <c r="B194" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>545</v>
+      </c>
+      <c r="B195" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>546</v>
+      </c>
+      <c r="B196" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>547</v>
+      </c>
+      <c r="B197" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>548</v>
+      </c>
+      <c r="B198" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>549</v>
+      </c>
+      <c r="B199" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>550</v>
+      </c>
+      <c r="B200" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>551</v>
+      </c>
+      <c r="B201" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>552</v>
+      </c>
+      <c r="B202" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>553</v>
+      </c>
+      <c r="B203" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>554</v>
+      </c>
+      <c r="B204" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>555</v>
+      </c>
+      <c r="B205" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>556</v>
+      </c>
+      <c r="B206" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>557</v>
+      </c>
+      <c r="B207" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>558</v>
+      </c>
+      <c r="B208" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>559</v>
+      </c>
+      <c r="B209" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>560</v>
+      </c>
+      <c r="B210" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>561</v>
+      </c>
+      <c r="B211" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>562</v>
+      </c>
+      <c r="B212" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>563</v>
+      </c>
+      <c r="B213" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>564</v>
+      </c>
+      <c r="B214" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>565</v>
+      </c>
+      <c r="B215" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>566</v>
+      </c>
+      <c r="B216" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>567</v>
+      </c>
+      <c r="B217" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>568</v>
+      </c>
+      <c r="B218" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>569</v>
+      </c>
+      <c r="B219" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>570</v>
+      </c>
+      <c r="B220" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>571</v>
+      </c>
+      <c r="B221" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>572</v>
+      </c>
+      <c r="B222" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>573</v>
+      </c>
+      <c r="B223" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>574</v>
+      </c>
+      <c r="B224" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>575</v>
+      </c>
+      <c r="B225" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>576</v>
+      </c>
+      <c r="B226" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>577</v>
+      </c>
+      <c r="B227" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>578</v>
+      </c>
+      <c r="B228" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>579</v>
+      </c>
+      <c r="B229" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>580</v>
+      </c>
+      <c r="B230" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>581</v>
+      </c>
+      <c r="B231" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>582</v>
+      </c>
+      <c r="B232" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>583</v>
+      </c>
+      <c r="B233" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>584</v>
+      </c>
+      <c r="B234" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>585</v>
+      </c>
+      <c r="B235" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>586</v>
+      </c>
+      <c r="B236" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>587</v>
+      </c>
+      <c r="B237" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>588</v>
+      </c>
+      <c r="B238" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>589</v>
+      </c>
+      <c r="B239" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>590</v>
+      </c>
+      <c r="B240" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>591</v>
+      </c>
+      <c r="B241" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>592</v>
+      </c>
+      <c r="B242" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>593</v>
+      </c>
+      <c r="B243" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>594</v>
+      </c>
+      <c r="B244" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>595</v>
+      </c>
+      <c r="B245" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>596</v>
+      </c>
+      <c r="B246" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>597</v>
+      </c>
+      <c r="B247" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>598</v>
+      </c>
+      <c r="B248" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>599</v>
+      </c>
+      <c r="B249" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>600</v>
+      </c>
+      <c r="B250" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>601</v>
+      </c>
+      <c r="B251" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>602</v>
+      </c>
+      <c r="B252" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>603</v>
+      </c>
+      <c r="B253" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>604</v>
+      </c>
+      <c r="B254" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>605</v>
+      </c>
+      <c r="B255" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>606</v>
+      </c>
+      <c r="B256" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>607</v>
+      </c>
+      <c r="B257" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>608</v>
+      </c>
+      <c r="B258" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>609</v>
+      </c>
+      <c r="B259" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>610</v>
+      </c>
+      <c r="B260" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>611</v>
+      </c>
+      <c r="B261" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>612</v>
+      </c>
+      <c r="B262" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>613</v>
+      </c>
+      <c r="B263" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>614</v>
+      </c>
+      <c r="B264" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>615</v>
+      </c>
+      <c r="B265" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>616</v>
+      </c>
+      <c r="B266" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>617</v>
+      </c>
+      <c r="B267" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>618</v>
+      </c>
+      <c r="B268" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>619</v>
+      </c>
+      <c r="B269" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>620</v>
+      </c>
+      <c r="B270" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>621</v>
+      </c>
+      <c r="B271" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>622</v>
+      </c>
+      <c r="B272" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>623</v>
+      </c>
+      <c r="B273" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>624</v>
+      </c>
+      <c r="B274" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>625</v>
+      </c>
+      <c r="B275" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>626</v>
+      </c>
+      <c r="B276" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>627</v>
+      </c>
+      <c r="B277" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>628</v>
+      </c>
+      <c r="B278" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>629</v>
+      </c>
+      <c r="B279" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>630</v>
+      </c>
+      <c r="B280" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>631</v>
+      </c>
+      <c r="B281" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>632</v>
+      </c>
+      <c r="B282" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>633</v>
+      </c>
+      <c r="B283" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>634</v>
+      </c>
+      <c r="B284" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>635</v>
+      </c>
+      <c r="B285" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>636</v>
+      </c>
+      <c r="B286" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>637</v>
+      </c>
+      <c r="B287" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>638</v>
+      </c>
+      <c r="B288" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>639</v>
+      </c>
+      <c r="B289" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>640</v>
+      </c>
+      <c r="B290" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>641</v>
+      </c>
+      <c r="B291" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>642</v>
+      </c>
+      <c r="B292" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>643</v>
+      </c>
+      <c r="B293" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>644</v>
+      </c>
+      <c r="B294" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>645</v>
+      </c>
+      <c r="B295" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>646</v>
+      </c>
+      <c r="B296" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>647</v>
+      </c>
+      <c r="B297" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>648</v>
+      </c>
+      <c r="B298" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>649</v>
+      </c>
+      <c r="B299" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>650</v>
+      </c>
+      <c r="B300" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>651</v>
+      </c>
+      <c r="B301" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>652</v>
+      </c>
+      <c r="B302" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>653</v>
+      </c>
+      <c r="B303" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>654</v>
+      </c>
+      <c r="B304" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>655</v>
+      </c>
+      <c r="B305" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>656</v>
+      </c>
+      <c r="B306" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>657</v>
+      </c>
+      <c r="B307" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>658</v>
+      </c>
+      <c r="B308" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>659</v>
+      </c>
+      <c r="B309" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>660</v>
+      </c>
+      <c r="B310" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>661</v>
+      </c>
+      <c r="B311" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>662</v>
+      </c>
+      <c r="B312" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>663</v>
+      </c>
+      <c r="B313" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>664</v>
+      </c>
+      <c r="B314" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>665</v>
+      </c>
+      <c r="B315" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>666</v>
+      </c>
+      <c r="B316" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>667</v>
+      </c>
+      <c r="B317" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>668</v>
+      </c>
+      <c r="B318" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>669</v>
+      </c>
+      <c r="B319" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>670</v>
+      </c>
+      <c r="B320" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>671</v>
+      </c>
+      <c r="B321" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>672</v>
+      </c>
+      <c r="B322" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>673</v>
+      </c>
+      <c r="B323" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>674</v>
+      </c>
+      <c r="B324" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>675</v>
+      </c>
+      <c r="B325" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>676</v>
+      </c>
+      <c r="B326" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>677</v>
+      </c>
+      <c r="B327" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>678</v>
+      </c>
+      <c r="B328" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>679</v>
+      </c>
+      <c r="B329" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>680</v>
+      </c>
+      <c r="B330" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>681</v>
+      </c>
+      <c r="B331" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>682</v>
+      </c>
+      <c r="B332" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>683</v>
+      </c>
+      <c r="B333" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>684</v>
+      </c>
+      <c r="B334" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>685</v>
+      </c>
+      <c r="B335" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>686</v>
+      </c>
+      <c r="B336" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>687</v>
+      </c>
+      <c r="B337" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>688</v>
+      </c>
+      <c r="B338" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>689</v>
+      </c>
+      <c r="B339" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>690</v>
+      </c>
+      <c r="B340" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>691</v>
+      </c>
+      <c r="B341" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>692</v>
+      </c>
+      <c r="B342" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>693</v>
+      </c>
+      <c r="B343" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>694</v>
+      </c>
+      <c r="B344" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>695</v>
+      </c>
+      <c r="B345" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>696</v>
+      </c>
+      <c r="B346" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>697</v>
+      </c>
+      <c r="B347" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>698</v>
+      </c>
+      <c r="B348" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>699</v>
+      </c>
+      <c r="B349" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>700</v>
+      </c>
+      <c r="B350" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>701</v>
+      </c>
+      <c r="B351" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/excel-files/image/image-url.xlsx
+++ b/excel-files/image/image-url.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C631928-91C4-4222-AB25-DFB90A1DD041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813716F3-EA7F-4C06-8B77-6E95B1C937B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B9850FB-3DED-4EEE-9074-541AEF78CC97}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$A$431</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2235,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1A4827-8481-4A28-9482-4A98454EB8C2}">
   <dimension ref="A1:B431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="J305" sqref="J305"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="A299" sqref="A293:XFD299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4769,6 +4772,7 @@
     <row r="430" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="431" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <autoFilter ref="A1:A431" xr:uid="{BB1A4827-8481-4A28-9482-4A98454EB8C2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>